--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -508,6 +508,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -517,7 +526,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -583,6 +592,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>548835.01220042724</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>574803.82180182589</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>608395.92264148453</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>637390.84148665029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -625,7 +643,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -691,6 +709,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -700,7 +727,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -766,6 +793,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>540654.57034428499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>552598.59015013964</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>563380.39316840307</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>619761.83169761067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,7 +844,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -874,6 +910,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -883,7 +928,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -949,6 +994,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-8180.4418561422499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-22205.231651686248</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-45015.529473081464</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-17629.009789039614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,11 +1024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="483406208"/>
-        <c:axId val="483407744"/>
+        <c:axId val="76105984"/>
+        <c:axId val="91515136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="483406208"/>
+        <c:axId val="76105984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,14 +1071,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483407744"/>
+        <c:crossAx val="91515136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="483407744"/>
+        <c:axId val="91515136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1129,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483406208"/>
+        <c:crossAx val="76105984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1236,7 +1290,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1302,6 +1356,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>24620.694956416326</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25968.8096013986</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33592.100839658677</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28994.918845165728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1316,8 +1379,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="613555584"/>
-        <c:axId val="613553664"/>
+        <c:axId val="485657600"/>
+        <c:axId val="485656064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1342,7 +1405,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1408,6 +1471,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1417,7 +1489,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1483,6 +1555,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1499,11 +1580,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="612407552"/>
-        <c:axId val="613552128"/>
+        <c:axId val="485504512"/>
+        <c:axId val="485506432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="612407552"/>
+        <c:axId val="485504512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,14 +1627,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613552128"/>
+        <c:crossAx val="485506432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="613552128"/>
+        <c:axId val="485506432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,12 +1685,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612407552"/>
+        <c:crossAx val="485504512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="613553664"/>
+        <c:axId val="485656064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,12 +1727,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613555584"/>
+        <c:crossAx val="485657600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="613555584"/>
+        <c:axId val="485657600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,7 +1741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="613553664"/>
+        <c:crossAx val="485656064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2069,7 +2150,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3201,6 +3282,129 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:13" ht="12.75">
+      <c r="A25" s="11">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="12">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="13">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="13">
+        <v>25968.8096013986</v>
+      </c>
+      <c r="F25" s="14">
+        <v>34578.974762435661</v>
+      </c>
+      <c r="G25" s="14">
+        <v>735817.04344006942</v>
+      </c>
+      <c r="H25" s="14">
+        <v>552598.59015013964</v>
+      </c>
+      <c r="I25" s="14">
+        <v>574803.82180182589</v>
+      </c>
+      <c r="J25" s="14">
+        <v>552598.59015013964</v>
+      </c>
+      <c r="K25" s="14">
+        <v>-22205.231651686248</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75">
+      <c r="A26" s="11">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="12">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="12">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="13">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="13">
+        <v>33592.100839658677</v>
+      </c>
+      <c r="F26" s="14">
+        <v>46655.693756706351</v>
+      </c>
+      <c r="G26" s="14">
+        <v>782472.73719677574</v>
+      </c>
+      <c r="H26" s="14">
+        <v>563380.39316840307</v>
+      </c>
+      <c r="I26" s="14">
+        <v>608395.92264148453</v>
+      </c>
+      <c r="J26" s="14">
+        <v>563380.39316840307</v>
+      </c>
+      <c r="K26" s="14">
+        <v>-45015.529473081464</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75">
+      <c r="A27" s="11">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="12">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="12">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="13">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="13">
+        <v>28994.918845165728</v>
+      </c>
+      <c r="F27" s="14">
+        <v>38403.866262635274</v>
+      </c>
+      <c r="G27" s="14">
+        <v>820876.60345941107</v>
+      </c>
+      <c r="H27" s="14">
+        <v>619761.83169761067</v>
+      </c>
+      <c r="I27" s="14">
+        <v>637390.84148665029</v>
+      </c>
+      <c r="J27" s="14">
+        <v>619761.83169761067</v>
+      </c>
+      <c r="K27" s="14">
+        <v>-17629.009789039614</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -517,6 +517,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,7 +529,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -601,6 +604,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>637390.84148665029</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>664460.27747876197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,7 +649,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -718,6 +724,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -727,7 +736,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -802,6 +811,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>619761.83169761067</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>651756.51282777358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,7 +856,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -919,6 +931,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -928,7 +943,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1003,6 +1018,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-17629.009789039614</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-12703.764650988393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,11 +1042,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76105984"/>
-        <c:axId val="91515136"/>
+        <c:axId val="383727104"/>
+        <c:axId val="383750528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="76105984"/>
+        <c:axId val="383727104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,14 +1089,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91515136"/>
+        <c:crossAx val="383750528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91515136"/>
+        <c:axId val="383750528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,7 +1147,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76105984"/>
+        <c:crossAx val="383727104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1290,7 +1308,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1365,6 +1383,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>28994.918845165728</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27069.435992111685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1379,8 +1400,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="485657600"/>
-        <c:axId val="485656064"/>
+        <c:axId val="507687296"/>
+        <c:axId val="396589312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1405,7 +1426,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1480,6 +1501,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1489,7 +1513,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1564,6 +1588,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1580,11 +1607,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485504512"/>
-        <c:axId val="485506432"/>
+        <c:axId val="396438144"/>
+        <c:axId val="396587776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485504512"/>
+        <c:axId val="396438144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1627,14 +1654,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485506432"/>
+        <c:crossAx val="396587776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485506432"/>
+        <c:axId val="396587776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,12 +1712,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485504512"/>
+        <c:crossAx val="396438144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485656064"/>
+        <c:axId val="396589312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1727,12 +1754,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485657600"/>
+        <c:crossAx val="507687296"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="485657600"/>
+        <c:axId val="507687296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,7 +1768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485656064"/>
+        <c:crossAx val="396589312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2150,7 +2177,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3405,6 +3432,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:13" ht="12.75">
+      <c r="A28" s="11">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="12">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="12">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="13">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="13">
+        <v>27069.435992111685</v>
+      </c>
+      <c r="F28" s="14">
+        <v>35570.876201449297</v>
+      </c>
+      <c r="G28" s="14">
+        <v>856447.47966086038</v>
+      </c>
+      <c r="H28" s="14">
+        <v>651756.51282777358</v>
+      </c>
+      <c r="I28" s="14">
+        <v>664460.27747876197</v>
+      </c>
+      <c r="J28" s="14">
+        <v>651756.51282777358</v>
+      </c>
+      <c r="K28" s="14">
+        <v>-12703.764650988393</v>
+      </c>
+      <c r="L28" s="13">
+        <v>0</v>
+      </c>
+      <c r="M28" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -520,6 +520,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -529,7 +532,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -607,6 +610,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>664460.27747876197</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>696265.27651067753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -649,7 +655,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -727,6 +733,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -736,7 +745,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -814,6 +823,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>651756.51282777358</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>643308.4880749624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,7 +868,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -934,6 +946,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -943,7 +958,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1021,6 +1036,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-12703.764650988393</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-52956.788435715134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,11 +1060,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="383727104"/>
-        <c:axId val="383750528"/>
+        <c:axId val="90352640"/>
+        <c:axId val="97240192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="383727104"/>
+        <c:axId val="90352640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,14 +1107,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383750528"/>
+        <c:crossAx val="97240192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="383750528"/>
+        <c:axId val="97240192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1165,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383727104"/>
+        <c:crossAx val="90352640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1308,7 +1326,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1386,6 +1404,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>27069.435992111685</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31804.999031915606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1400,8 +1421,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="507687296"/>
-        <c:axId val="396589312"/>
+        <c:axId val="508563840"/>
+        <c:axId val="500075136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1426,7 +1447,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1504,6 +1525,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1513,7 +1537,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1591,6 +1615,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1607,11 +1634,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="396438144"/>
-        <c:axId val="396587776"/>
+        <c:axId val="500066944"/>
+        <c:axId val="500073600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="396438144"/>
+        <c:axId val="500066944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,14 +1681,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396587776"/>
+        <c:crossAx val="500073600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396587776"/>
+        <c:axId val="500073600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1712,12 +1739,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396438144"/>
+        <c:crossAx val="500066944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396589312"/>
+        <c:axId val="500075136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,12 +1781,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507687296"/>
+        <c:crossAx val="508563840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="507687296"/>
+        <c:axId val="508563840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,7 +1795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="396589312"/>
+        <c:crossAx val="500075136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2177,7 +2204,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3473,6 +3500,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:13" ht="12.75">
+      <c r="A29" s="11">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="12">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="12">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="13">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="13">
+        <v>31804.999031915606</v>
+      </c>
+      <c r="F29" s="14">
+        <v>44544.817404276022</v>
+      </c>
+      <c r="G29" s="14">
+        <v>900992.29706513637</v>
+      </c>
+      <c r="H29" s="14">
+        <v>643308.4880749624</v>
+      </c>
+      <c r="I29" s="14">
+        <v>696265.27651067753</v>
+      </c>
+      <c r="J29" s="14">
+        <v>643308.4880749624</v>
+      </c>
+      <c r="K29" s="14">
+        <v>-52956.788435715134</v>
+      </c>
+      <c r="L29" s="13">
+        <v>0</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -523,6 +523,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,7 +535,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -613,6 +616,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>696265.27651067753</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>733363.80791297404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -655,7 +661,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -736,6 +742,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -745,7 +754,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -826,6 +835,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>643308.4880749624</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>654278.2570400479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -868,7 +880,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -949,6 +961,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -958,7 +973,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1039,6 +1054,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-52956.788435715134</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-79085.550872926135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1060,11 +1078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90352640"/>
-        <c:axId val="97240192"/>
+        <c:axId val="79545856"/>
+        <c:axId val="79547392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90352640"/>
+        <c:axId val="79545856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,14 +1125,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97240192"/>
+        <c:crossAx val="79547392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97240192"/>
+        <c:axId val="79547392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,7 +1183,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90352640"/>
+        <c:crossAx val="79545856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1326,7 +1344,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1407,6 +1425,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>31804.999031915606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37098.531402296496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,8 +1442,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="508563840"/>
-        <c:axId val="500075136"/>
+        <c:axId val="296995456"/>
+        <c:axId val="296958592"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1447,7 +1468,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1528,6 +1549,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1537,7 +1561,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1618,6 +1642,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,11 +1661,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500066944"/>
-        <c:axId val="500073600"/>
+        <c:axId val="296626816"/>
+        <c:axId val="296956288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500066944"/>
+        <c:axId val="296626816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,14 +1708,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500073600"/>
+        <c:crossAx val="296956288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500073600"/>
+        <c:axId val="296956288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,12 +1766,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500066944"/>
+        <c:crossAx val="296626816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="500075136"/>
+        <c:axId val="296958592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,12 +1808,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508563840"/>
+        <c:crossAx val="296995456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="508563840"/>
+        <c:axId val="296995456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,7 +1822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500075136"/>
+        <c:crossAx val="296958592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2204,7 +2231,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3541,6 +3568,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:13" ht="12.75">
+      <c r="A30" s="11">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="12">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="12">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="13">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="13">
+        <v>37098.531402296496</v>
+      </c>
+      <c r="F30" s="14">
+        <v>54158.439814850673</v>
+      </c>
+      <c r="G30" s="14">
+        <v>955150.73687998706</v>
+      </c>
+      <c r="H30" s="14">
+        <v>654278.2570400479</v>
+      </c>
+      <c r="I30" s="14">
+        <v>733363.80791297404</v>
+      </c>
+      <c r="J30" s="14">
+        <v>654278.2570400479</v>
+      </c>
+      <c r="K30" s="14">
+        <v>-79085.550872926135</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0</v>
+      </c>
+      <c r="M30" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -526,6 +526,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,7 +538,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -619,6 +622,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>733363.80791297404</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>771292.18841627764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -661,7 +667,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -745,6 +751,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -754,7 +763,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -838,6 +847,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>654278.2570400479</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>671193.30721299967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -880,7 +892,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -964,6 +976,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,7 +988,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1057,6 +1072,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-79085.550872926135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-100098.88120327797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,11 +1096,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79545856"/>
-        <c:axId val="79547392"/>
+        <c:axId val="40752256"/>
+        <c:axId val="40754560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79545856"/>
+        <c:axId val="40752256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,14 +1143,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79547392"/>
+        <c:crossAx val="40754560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79547392"/>
+        <c:axId val="40754560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,7 +1201,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79545856"/>
+        <c:crossAx val="40752256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1344,7 +1362,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1428,6 +1446,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>37098.531402296496</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37928.380503303619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1442,8 +1463,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="296995456"/>
-        <c:axId val="296958592"/>
+        <c:axId val="447552512"/>
+        <c:axId val="447550976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1468,7 +1489,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1552,6 +1573,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1561,7 +1585,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1645,6 +1669,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1661,11 +1688,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296626816"/>
-        <c:axId val="296956288"/>
+        <c:axId val="181383168"/>
+        <c:axId val="444487936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="296626816"/>
+        <c:axId val="181383168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,14 +1735,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296956288"/>
+        <c:crossAx val="444487936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="296956288"/>
+        <c:axId val="444487936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,12 +1793,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296626816"/>
+        <c:crossAx val="181383168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296958592"/>
+        <c:axId val="447550976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1808,12 +1835,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296995456"/>
+        <c:crossAx val="447552512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="296995456"/>
+        <c:axId val="447552512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1822,7 +1849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="296958592"/>
+        <c:crossAx val="447550976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2231,7 +2258,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3609,6 +3636,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:13" ht="12.75">
+      <c r="A31" s="11">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="12">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="12">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="13">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="13">
+        <v>37928.380503303619</v>
+      </c>
+      <c r="F31" s="14">
+        <v>57207.211481968698</v>
+      </c>
+      <c r="G31" s="14">
+        <v>1012357.9483619558</v>
+      </c>
+      <c r="H31" s="14">
+        <v>671193.30721299967</v>
+      </c>
+      <c r="I31" s="14">
+        <v>771292.18841627764</v>
+      </c>
+      <c r="J31" s="14">
+        <v>671193.30721299967</v>
+      </c>
+      <c r="K31" s="14">
+        <v>-100098.88120327797</v>
+      </c>
+      <c r="L31" s="13">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -529,6 +529,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -538,7 +544,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -625,6 +631,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>771292.18841627764</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>811194.36685398582</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>850637.83985309303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -667,7 +679,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -754,6 +766,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -763,7 +781,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -850,6 +868,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>671193.30721299967</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>698947.22599237598</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>731948.744248776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -892,7 +916,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -979,6 +1003,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,7 +1018,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1075,6 +1105,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-100098.88120327797</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-112247.14086160983</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-118689.09560431703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,11 +1132,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40752256"/>
-        <c:axId val="40754560"/>
+        <c:axId val="493714048"/>
+        <c:axId val="494899968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="40752256"/>
+        <c:axId val="493714048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,14 +1179,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40754560"/>
+        <c:crossAx val="494899968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="40754560"/>
+        <c:axId val="494899968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,7 +1237,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40752256"/>
+        <c:crossAx val="493714048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1362,7 +1398,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1449,6 +1485,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>37928.380503303619</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39902.178437708179</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39443.472999107165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1463,8 +1505,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="447552512"/>
-        <c:axId val="447550976"/>
+        <c:axId val="516499328"/>
+        <c:axId val="516183936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1489,7 +1531,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1576,6 +1618,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1585,7 +1633,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1672,6 +1720,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1688,11 +1742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="181383168"/>
-        <c:axId val="444487936"/>
+        <c:axId val="516176128"/>
+        <c:axId val="516182400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="181383168"/>
+        <c:axId val="516176128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,14 +1789,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444487936"/>
+        <c:crossAx val="516182400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="444487936"/>
+        <c:axId val="516182400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1793,12 +1847,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181383168"/>
+        <c:crossAx val="516176128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="447550976"/>
+        <c:axId val="516183936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1835,12 +1889,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447552512"/>
+        <c:crossAx val="516499328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="447552512"/>
+        <c:axId val="516499328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,7 +1903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="447550976"/>
+        <c:crossAx val="516183936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2258,7 +2312,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3677,6 +3731,88 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:13" ht="12.75">
+      <c r="A32" s="11">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="12">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="12">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="13">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="13">
+        <v>39902.178437708179</v>
+      </c>
+      <c r="F32" s="14">
+        <v>61293.666720134381</v>
+      </c>
+      <c r="G32" s="14">
+        <v>1073651.6150820903</v>
+      </c>
+      <c r="H32" s="14">
+        <v>698947.22599237598</v>
+      </c>
+      <c r="I32" s="14">
+        <v>811194.36685398582</v>
+      </c>
+      <c r="J32" s="14">
+        <v>698947.22599237598</v>
+      </c>
+      <c r="K32" s="14">
+        <v>-112247.14086160983</v>
+      </c>
+      <c r="L32" s="13">
+        <v>0</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="12.75">
+      <c r="A33" s="11">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="12">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="12">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="13">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="13">
+        <v>39443.472999107165</v>
+      </c>
+      <c r="F33" s="14">
+        <v>61152.673124809051</v>
+      </c>
+      <c r="G33" s="14">
+        <v>1134804.2882068993</v>
+      </c>
+      <c r="H33" s="14">
+        <v>731948.744248776</v>
+      </c>
+      <c r="I33" s="14">
+        <v>850637.83985309303</v>
+      </c>
+      <c r="J33" s="14">
+        <v>731948.744248776</v>
+      </c>
+      <c r="K33" s="14">
+        <v>-118689.09560431703</v>
+      </c>
+      <c r="L33" s="13">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -535,6 +535,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -544,7 +547,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -637,6 +640,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>850637.83985309303</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>897866.50568122428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -679,7 +685,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -772,6 +778,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,7 +790,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -874,6 +883,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>731948.744248776</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>683853.85960763111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,7 +928,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1009,6 +1021,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1018,7 +1033,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1111,6 +1126,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-118689.09560431703</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-214012.64607359318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1132,11 +1150,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493714048"/>
-        <c:axId val="494899968"/>
+        <c:axId val="392246784"/>
+        <c:axId val="392248320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493714048"/>
+        <c:axId val="392246784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,14 +1197,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494899968"/>
+        <c:crossAx val="392248320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494899968"/>
+        <c:axId val="392248320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1255,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493714048"/>
+        <c:crossAx val="392246784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1398,7 +1416,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1491,6 +1509,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>39443.472999107165</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47228.665828131299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,8 +1526,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="516499328"/>
-        <c:axId val="516183936"/>
+        <c:axId val="458293632"/>
+        <c:axId val="457933952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1531,7 +1552,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1624,6 +1645,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1633,7 +1657,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1726,6 +1750,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1742,11 +1769,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516176128"/>
-        <c:axId val="516182400"/>
+        <c:axId val="454866432"/>
+        <c:axId val="454868352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516176128"/>
+        <c:axId val="454866432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1789,14 +1816,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516182400"/>
+        <c:crossAx val="454868352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516182400"/>
+        <c:axId val="454868352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,12 +1874,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516176128"/>
+        <c:crossAx val="454866432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516183936"/>
+        <c:axId val="457933952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1889,12 +1916,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516499328"/>
+        <c:crossAx val="458293632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="516499328"/>
+        <c:axId val="458293632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +1930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516183936"/>
+        <c:crossAx val="457933952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2312,7 +2339,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3813,6 +3840,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:13" ht="12.75">
+      <c r="A34" s="11">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="12">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="12">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="13">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="13">
+        <v>47228.665828131299</v>
+      </c>
+      <c r="F34" s="14">
+        <v>84186.571677867352</v>
+      </c>
+      <c r="G34" s="14">
+        <v>1218990.8598847666</v>
+      </c>
+      <c r="H34" s="14">
+        <v>683853.85960763111</v>
+      </c>
+      <c r="I34" s="14">
+        <v>897866.50568122428</v>
+      </c>
+      <c r="J34" s="14">
+        <v>683853.85960763111</v>
+      </c>
+      <c r="K34" s="14">
+        <v>-214012.64607359318</v>
+      </c>
+      <c r="L34" s="13">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -538,6 +538,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,7 +550,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -643,6 +646,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>897866.50568122428</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>935891.00400915544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,7 +691,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -781,6 +787,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -790,7 +799,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -886,6 +895,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>683853.85960763111</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>815740.68088465545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -928,7 +940,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1024,6 +1036,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1033,7 +1048,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1129,6 +1144,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-214012.64607359318</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-120150.32312449999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1150,11 +1168,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="392246784"/>
-        <c:axId val="392248320"/>
+        <c:axId val="92246016"/>
+        <c:axId val="92247552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="392246784"/>
+        <c:axId val="92246016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1197,14 +1215,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392248320"/>
+        <c:crossAx val="92247552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="392248320"/>
+        <c:axId val="92247552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1255,7 +1273,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392246784"/>
+        <c:crossAx val="92246016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1416,7 +1434,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1512,6 +1530,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>47228.665828131299</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38024.498327931113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,8 +1547,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="458293632"/>
-        <c:axId val="457933952"/>
+        <c:axId val="156467968"/>
+        <c:axId val="156086272"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1552,7 +1573,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1648,6 +1669,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1657,7 +1681,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1753,6 +1777,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1769,11 +1796,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454866432"/>
-        <c:axId val="454868352"/>
+        <c:axId val="155857280"/>
+        <c:axId val="155858816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="454866432"/>
+        <c:axId val="155857280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1816,14 +1843,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454868352"/>
+        <c:crossAx val="155858816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="454868352"/>
+        <c:axId val="155858816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,12 +1901,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454866432"/>
+        <c:crossAx val="155857280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="457933952"/>
+        <c:axId val="156086272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,12 +1943,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458293632"/>
+        <c:crossAx val="156467968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="458293632"/>
+        <c:axId val="156467968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,7 +1957,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="457933952"/>
+        <c:crossAx val="156086272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2339,7 +2366,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3881,6 +3908,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:13" ht="12.75">
+      <c r="A35" s="11">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="12">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="12">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="13">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="13">
+        <v>38024.498327931113</v>
+      </c>
+      <c r="F35" s="14">
+        <v>59599.526090703235</v>
+      </c>
+      <c r="G35" s="14">
+        <v>1278590.3859754698</v>
+      </c>
+      <c r="H35" s="14">
+        <v>815740.68088465545</v>
+      </c>
+      <c r="I35" s="14">
+        <v>935891.00400915544</v>
+      </c>
+      <c r="J35" s="14">
+        <v>815740.68088465545</v>
+      </c>
+      <c r="K35" s="14">
+        <v>-120150.32312449999</v>
+      </c>
+      <c r="L35" s="13">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -541,6 +541,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -550,7 +553,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -649,6 +652,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>935891.00400915544</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>972150.5019069548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -691,7 +697,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -790,6 +796,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -799,7 +808,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -898,6 +907,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>815740.68088465545</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>862228.92259935837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,7 +952,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1039,6 +1051,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,7 +1063,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1147,6 +1162,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-120150.32312449999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-109921.57930759643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1168,11 +1186,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92246016"/>
-        <c:axId val="92247552"/>
+        <c:axId val="524008064"/>
+        <c:axId val="524125312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92246016"/>
+        <c:axId val="524008064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,14 +1233,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92247552"/>
+        <c:crossAx val="524125312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92247552"/>
+        <c:axId val="524125312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,7 +1291,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92246016"/>
+        <c:crossAx val="524008064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1434,7 +1452,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1533,6 +1551,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>38024.498327931113</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36259.497897799316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1547,8 +1568,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="156467968"/>
-        <c:axId val="156086272"/>
+        <c:axId val="564301184"/>
+        <c:axId val="564298880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1573,7 +1594,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1672,6 +1693,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1681,7 +1705,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1780,6 +1804,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1796,11 +1823,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155857280"/>
-        <c:axId val="155858816"/>
+        <c:axId val="545064448"/>
+        <c:axId val="545066368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="155857280"/>
+        <c:axId val="545064448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1843,14 +1870,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155858816"/>
+        <c:crossAx val="545066368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="155858816"/>
+        <c:axId val="545066368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1901,12 +1928,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155857280"/>
+        <c:crossAx val="545064448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156086272"/>
+        <c:axId val="564298880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,12 +1970,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156467968"/>
+        <c:crossAx val="564301184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="156467968"/>
+        <c:axId val="564301184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +1984,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156086272"/>
+        <c:crossAx val="564298880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2366,7 +2393,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3949,6 +3976,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:13" ht="12.75">
+      <c r="A36" s="11">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="12">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="12">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="13">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="13">
+        <v>36259.497897799316</v>
+      </c>
+      <c r="F36" s="14">
+        <v>56129.251308757863</v>
+      </c>
+      <c r="G36" s="14">
+        <v>1334719.6372842276</v>
+      </c>
+      <c r="H36" s="14">
+        <v>862228.92259935837</v>
+      </c>
+      <c r="I36" s="14">
+        <v>972150.5019069548</v>
+      </c>
+      <c r="J36" s="14">
+        <v>862228.92259935837</v>
+      </c>
+      <c r="K36" s="14">
+        <v>-109921.57930759643</v>
+      </c>
+      <c r="L36" s="13">
+        <v>0</v>
+      </c>
+      <c r="M36" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -544,6 +544,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -553,7 +556,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -564,97 +567,100 @@
                   <c:v>14161.562985932418</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32769.298882683892</c:v>
+                  <c:v>51377.034779435366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44436.113265071559</c:v>
+                  <c:v>74710.663544210707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57255.838220634025</c:v>
+                  <c:v>100350.11345533564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71470.226080923632</c:v>
+                  <c:v>128778.88917591485</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97894.943696992981</c:v>
+                  <c:v>155203.6067919842</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>122460.50354360542</c:v>
+                  <c:v>179769.16663859665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>156825.66970732121</c:v>
+                  <c:v>214134.33280231245</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>198048.32868455962</c:v>
+                  <c:v>255356.99177955085</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>239958.11501198969</c:v>
+                  <c:v>297266.7781069809</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>264878.271952888</c:v>
+                  <c:v>322186.93504787923</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>293854.29077638953</c:v>
+                  <c:v>351162.95387138077</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>325443.26614530955</c:v>
+                  <c:v>382751.92924030079</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>365060.51285164926</c:v>
+                  <c:v>422369.17594664049</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>404537.02305768989</c:v>
+                  <c:v>461845.68615268113</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>439721.86278135609</c:v>
+                  <c:v>497030.52587634732</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>473423.67442442547</c:v>
+                  <c:v>530732.3375194167</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>497558.03436598374</c:v>
+                  <c:v>554866.69746097503</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>524214.31724401086</c:v>
+                  <c:v>581522.98033900221</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>548835.01220042724</c:v>
+                  <c:v>606143.67529541859</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>574803.82180182589</c:v>
+                  <c:v>632112.48489681724</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>608395.92264148453</c:v>
+                  <c:v>665704.58573647588</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>637390.84148665029</c:v>
+                  <c:v>694699.50458164164</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>664460.27747876197</c:v>
+                  <c:v>721768.94057375332</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>696265.27651067753</c:v>
+                  <c:v>753573.93960566889</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>733363.80791297404</c:v>
+                  <c:v>790672.47100796539</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>771292.18841627764</c:v>
+                  <c:v>828600.85151126899</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>811194.36685398582</c:v>
+                  <c:v>868503.02994897717</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>850637.83985309303</c:v>
+                  <c:v>907946.50294808438</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>897866.50568122428</c:v>
+                  <c:v>955175.16877621564</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>935891.00400915544</c:v>
+                  <c:v>993199.66710414679</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>972150.5019069548</c:v>
+                  <c:v>1029459.1650019462</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1096485.243558628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -697,7 +703,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -799,6 +805,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,7 +817,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -819,97 +828,100 @@
                   <c:v>14004.426853356539</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32539.676068672419</c:v>
+                  <c:v>51147.411965423897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45290.016660959976</c:v>
+                  <c:v>76184.178810496203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58930.711732953183</c:v>
+                  <c:v>103204.61594042573</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72037.595509193401</c:v>
+                  <c:v>129693.83365660271</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91127.839279100357</c:v>
+                  <c:v>142913.83470434227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114772.92162732928</c:v>
+                  <c:v>166035.82944402678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>137426.56121874889</c:v>
+                  <c:v>183458.55830706193</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>165982.37559535407</c:v>
+                  <c:v>207771.52364048728</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>214356.00915354106</c:v>
+                  <c:v>257772.55087766188</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>267397.85299832979</c:v>
+                  <c:v>316510.27606320125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>282450.18775213772</c:v>
+                  <c:v>329005.27591328922</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>301344.76793716248</c:v>
+                  <c:v>345807.4918069602</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>313781.89555750543</c:v>
+                  <c:v>354234.25569030637</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>349200.87963044492</c:v>
+                  <c:v>389130.14869040746</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>401159.5877231498</c:v>
+                  <c:v>443006.85969304928</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>436532.87606210314</c:v>
+                  <c:v>478554.50941341947</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>500516.70150597335</c:v>
+                  <c:v>546374.33374857553</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>510679.42763015447</c:v>
+                  <c:v>555025.91057900758</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>540654.57034428499</c:v>
+                  <c:v>585466.02390550438</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>552598.59015013964</c:v>
+                  <c:v>596247.6171804436</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>563380.39316840307</c:v>
+                  <c:v>605227.66513830272</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>619761.83169761067</c:v>
+                  <c:v>663643.34403409774</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>651756.51282777358</c:v>
+                  <c:v>695986.75139138824</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>643308.4880749624</c:v>
+                  <c:v>684807.03035344032</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>654278.2570400479</c:v>
+                  <c:v>694091.28517906601</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>671193.30721299967</c:v>
+                  <c:v>709727.66790015774</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>698947.22599237598</c:v>
+                  <c:v>736784.13422527886</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>731948.744248776</c:v>
+                  <c:v>769436.92279025714</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>683853.85960763111</c:v>
+                  <c:v>716459.85711214948</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>815740.68088465545</c:v>
+                  <c:v>852822.01273853681</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>862228.92259935837</c:v>
+                  <c:v>899775.22506560583</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>991872.36512951169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,7 +964,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1054,6 +1066,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,7 +1078,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1074,97 +1089,100 @@
                   <c:v>-157.13613257587895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-229.62281401147266</c:v>
+                  <c:v>-229.62281401146902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>853.90339588841744</c:v>
+                  <c:v>1473.5152662854962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1674.8735123191582</c:v>
+                  <c:v>2854.5024850900954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>567.36942826976883</c:v>
+                  <c:v>914.94448068786005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6767.104417892624</c:v>
+                  <c:v>-12289.772087641933</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7687.5819162761327</c:v>
+                  <c:v>-13733.337194569875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-19399.108488572325</c:v>
+                  <c:v>-30675.774495250516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-32065.953089205548</c:v>
+                  <c:v>-47585.468139063567</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-25602.105858448631</c:v>
+                  <c:v>-39494.227229319018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2519.5810454417951</c:v>
+                  <c:v>-5676.6589846779825</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-11404.103024251817</c:v>
+                  <c:v>-22157.677958091546</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-24098.498208147066</c:v>
+                  <c:v>-36944.437433340587</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-51278.617294143827</c:v>
+                  <c:v>-68134.920256334124</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-55336.14342724497</c:v>
+                  <c:v>-72715.537462273671</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-38562.275058206287</c:v>
+                  <c:v>-54023.666183298046</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-36890.798362322326</c:v>
+                  <c:v>-52177.828105997236</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2958.667139989615</c:v>
+                  <c:v>-8492.3637123994995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-13534.889613856387</c:v>
+                  <c:v>-26497.069759994629</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8180.4418561422499</c:v>
+                  <c:v>-20677.651389914216</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-22205.231651686248</c:v>
+                  <c:v>-35864.867716373643</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-45015.529473081464</c:v>
+                  <c:v>-60476.920598173165</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-17629.009789039614</c:v>
+                  <c:v>-31056.160547543899</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-12703.764650988393</c:v>
+                  <c:v>-25782.18918236508</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-52956.788435715134</c:v>
+                  <c:v>-68766.909252228565</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-79085.550872926135</c:v>
+                  <c:v>-96581.185828899383</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-100098.88120327797</c:v>
+                  <c:v>-118873.18361111125</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-112247.14086160983</c:v>
+                  <c:v>-131718.89572369831</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-118689.09560431703</c:v>
+                  <c:v>-138509.58015782724</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-214012.64607359318</c:v>
+                  <c:v>-238715.31166406616</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-120150.32312449999</c:v>
+                  <c:v>-140377.65436560998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-109921.57930759643</c:v>
+                  <c:v>-129683.93993634032</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-104612.87842911633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1186,11 +1204,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524008064"/>
-        <c:axId val="524125312"/>
+        <c:axId val="103570432"/>
+        <c:axId val="162407552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524008064"/>
+        <c:axId val="103570432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,14 +1251,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524125312"/>
+        <c:crossAx val="162407552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524125312"/>
+        <c:axId val="162407552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,7 +1309,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524008064"/>
+        <c:crossAx val="103570432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1452,7 +1470,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1463,16 +1481,16 @@
                   <c:v>10209.589251649057</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18607.735896751474</c:v>
+                  <c:v>37215.471793502948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11666.814382387671</c:v>
+                  <c:v>23333.628764775342</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12819.724955562464</c:v>
+                  <c:v>25639.449911124928</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14214.387860289606</c:v>
+                  <c:v>28428.775720579211</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>26424.717616069345</c:v>
@@ -1554,6 +1572,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>36259.497897799316</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67026.078556681867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1568,8 +1589,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="564301184"/>
-        <c:axId val="564298880"/>
+        <c:axId val="458232960"/>
+        <c:axId val="446073856"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1594,7 +1615,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1696,6 +1717,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1705,7 +1729,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1807,6 +1831,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,11 +1850,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="545064448"/>
-        <c:axId val="545066368"/>
+        <c:axId val="416578560"/>
+        <c:axId val="446072320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="545064448"/>
+        <c:axId val="416578560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,14 +1897,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545066368"/>
+        <c:crossAx val="446072320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="545066368"/>
+        <c:axId val="446072320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1928,12 +1955,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545064448"/>
+        <c:crossAx val="416578560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564298880"/>
+        <c:axId val="446073856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,12 +1997,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564301184"/>
+        <c:crossAx val="458232960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="564301184"/>
+        <c:axId val="458232960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,7 +2011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564298880"/>
+        <c:crossAx val="446073856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2393,7 +2420,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2609,25 +2636,25 @@
         <v>44561</v>
       </c>
       <c r="Q4" s="17">
-        <v>71470.226080923632</v>
+        <v>128778.88917591485</v>
       </c>
       <c r="R4" s="7">
-        <v>71470.226080923632</v>
+        <v>128778.88917591485</v>
       </c>
       <c r="S4" s="7">
-        <v>72037.595509193401</v>
+        <v>129693.83365660271</v>
       </c>
       <c r="T4" s="7">
-        <v>567.36942826976883</v>
+        <v>914.94448068786005</v>
       </c>
       <c r="U4" s="7">
         <v>0</v>
       </c>
       <c r="V4" s="18">
-        <v>7.9385425145759737E-3</v>
+        <v>7.104770716247019E-3</v>
       </c>
       <c r="W4" s="18">
-        <v>7.9385425145759737E-3</v>
+        <v>7.104770716247019E-3</v>
       </c>
       <c r="Y4" s="21">
         <v>44925</v>
@@ -2691,19 +2718,19 @@
         <v>401953.44834350183</v>
       </c>
       <c r="R5" s="7">
-        <v>473423.67442442547</v>
+        <v>530732.3375194167</v>
       </c>
       <c r="S5" s="7">
-        <v>436532.87606210314</v>
+        <v>478554.50941341947</v>
       </c>
       <c r="T5" s="7">
-        <v>-36890.798362322326</v>
+        <v>-52177.828105997236</v>
       </c>
       <c r="U5" s="7">
         <v>0</v>
       </c>
       <c r="V5" s="18">
-        <v>-7.7923433818921431E-2</v>
+        <v>-9.8312886585864623E-2</v>
       </c>
       <c r="W5" s="18">
         <v>-6.8314848168957498E-2</v>
@@ -2736,25 +2763,25 @@
         <v>39.730819672131133</v>
       </c>
       <c r="E6" s="13">
-        <v>18607.735896751474</v>
+        <v>37215.471793502948</v>
       </c>
       <c r="F6" s="14">
-        <v>19362.888550209649</v>
+        <v>38725.777100419298</v>
       </c>
       <c r="G6" s="14">
-        <v>33860.22483732822</v>
+        <v>53223.113387537873</v>
       </c>
       <c r="H6" s="14">
-        <v>32539.676068672419</v>
+        <v>51147.411965423897</v>
       </c>
       <c r="I6" s="14">
-        <v>32769.298882683892</v>
+        <v>51377.034779435366</v>
       </c>
       <c r="J6" s="14">
-        <v>32539.676068672419</v>
+        <v>51147.411965423897</v>
       </c>
       <c r="K6" s="14">
-        <v>-229.62281401147266</v>
+        <v>-229.62281401146902</v>
       </c>
       <c r="L6" s="13">
         <v>0</v>
@@ -2786,25 +2813,25 @@
         <v>39.253623134275358</v>
       </c>
       <c r="E7" s="13">
-        <v>11666.814382387671</v>
+        <v>23333.628764775342</v>
       </c>
       <c r="F7" s="14">
-        <v>11749.058131050662</v>
+        <v>23498.116262101325</v>
       </c>
       <c r="G7" s="14">
-        <v>45609.28296837888</v>
+        <v>76721.229649639194</v>
       </c>
       <c r="H7" s="14">
-        <v>45290.016660959976</v>
+        <v>76184.178810496203</v>
       </c>
       <c r="I7" s="14">
-        <v>44436.113265071559</v>
+        <v>74710.663544210707</v>
       </c>
       <c r="J7" s="14">
-        <v>45290.016660959976</v>
+        <v>76184.178810496203</v>
       </c>
       <c r="K7" s="14">
-        <v>853.90339588841744</v>
+        <v>1473.5152662854962</v>
       </c>
       <c r="L7" s="13">
         <v>0</v>
@@ -2831,25 +2858,25 @@
         <v>38.695499988749994</v>
       </c>
       <c r="E8" s="13">
-        <v>12819.724955562464</v>
+        <v>25639.449911124928</v>
       </c>
       <c r="F8" s="14">
-        <v>12680.241823879769</v>
+        <v>25360.483647759538</v>
       </c>
       <c r="G8" s="14">
-        <v>58289.52479225865</v>
+        <v>102081.71329739873</v>
       </c>
       <c r="H8" s="14">
-        <v>58930.711732953183</v>
+        <v>103204.61594042573</v>
       </c>
       <c r="I8" s="14">
-        <v>57255.838220634025</v>
+        <v>100350.11345533564</v>
       </c>
       <c r="J8" s="14">
-        <v>58930.711732953183</v>
+        <v>103204.61594042573</v>
       </c>
       <c r="K8" s="14">
-        <v>1674.8735123191582</v>
+        <v>2854.5024850900954</v>
       </c>
       <c r="L8" s="13">
         <v>0</v>
@@ -2872,25 +2899,25 @@
         <v>38.228579205136612</v>
       </c>
       <c r="E9" s="13">
-        <v>14214.387860289606</v>
+        <v>28428.775720579211</v>
       </c>
       <c r="F9" s="14">
-        <v>14329.020254635405</v>
+        <v>28658.04050927081</v>
       </c>
       <c r="G9" s="14">
-        <v>72618.545046894054</v>
+        <v>130739.75380666954</v>
       </c>
       <c r="H9" s="14">
-        <v>72037.595509193401</v>
+        <v>129693.83365660271</v>
       </c>
       <c r="I9" s="14">
-        <v>71470.226080923632</v>
+        <v>128778.88917591485</v>
       </c>
       <c r="J9" s="14">
-        <v>72037.595509193401</v>
+        <v>129693.83365660271</v>
       </c>
       <c r="K9" s="14">
-        <v>567.36942826976883</v>
+        <v>914.94448068786005</v>
       </c>
       <c r="L9" s="13">
         <v>0</v>
@@ -2922,19 +2949,19 @@
         <v>29657.371966496466</v>
       </c>
       <c r="G10" s="14">
-        <v>102275.91701339051</v>
+        <v>160397.12577316602</v>
       </c>
       <c r="H10" s="14">
-        <v>91127.839279100357</v>
+        <v>142913.83470434227</v>
       </c>
       <c r="I10" s="14">
-        <v>97894.943696992981</v>
+        <v>155203.6067919842</v>
       </c>
       <c r="J10" s="14">
-        <v>91127.839279100357</v>
+        <v>142913.83470434227</v>
       </c>
       <c r="K10" s="14">
-        <v>-6767.104417892624</v>
+        <v>-12289.772087641933</v>
       </c>
       <c r="L10" s="13">
         <v>0</v>
@@ -2966,19 +2993,19 @@
         <v>27852.107751106949</v>
       </c>
       <c r="G11" s="14">
-        <v>130128.02476449746</v>
+        <v>188249.23352427298</v>
       </c>
       <c r="H11" s="14">
-        <v>114772.92162732928</v>
+        <v>166035.82944402678</v>
       </c>
       <c r="I11" s="14">
-        <v>122460.50354360542</v>
+        <v>179769.16663859665</v>
       </c>
       <c r="J11" s="14">
-        <v>114772.92162732928</v>
+        <v>166035.82944402678</v>
       </c>
       <c r="K11" s="14">
-        <v>-7687.5819162761327</v>
+        <v>-13733.337194569875</v>
       </c>
       <c r="L11" s="13">
         <v>0</v>
@@ -3010,19 +3037,19 @@
         <v>43390.361552938171</v>
       </c>
       <c r="G12" s="14">
-        <v>173518.38631743562</v>
+        <v>231639.59507721115</v>
       </c>
       <c r="H12" s="14">
-        <v>137426.56121874889</v>
+        <v>183458.55830706193</v>
       </c>
       <c r="I12" s="14">
-        <v>156825.66970732121</v>
+        <v>214134.33280231245</v>
       </c>
       <c r="J12" s="14">
-        <v>137426.56121874889</v>
+        <v>183458.55830706193</v>
       </c>
       <c r="K12" s="14">
-        <v>-19399.108488572325</v>
+        <v>-30675.774495250516</v>
       </c>
       <c r="L12" s="13">
         <v>0</v>
@@ -3052,19 +3079,19 @@
         <v>57333.324083598687</v>
       </c>
       <c r="G13" s="14">
-        <v>230851.7104010343</v>
+        <v>288972.91916080983</v>
       </c>
       <c r="H13" s="14">
-        <v>165982.37559535407</v>
+        <v>207771.52364048728</v>
       </c>
       <c r="I13" s="14">
-        <v>198048.32868455962</v>
+        <v>255356.99177955085</v>
       </c>
       <c r="J13" s="14">
-        <v>165982.37559535407</v>
+        <v>207771.52364048728</v>
       </c>
       <c r="K13" s="14">
-        <v>-32065.953089205548</v>
+        <v>-47585.468139063567</v>
       </c>
       <c r="L13" s="13">
         <v>0</v>
@@ -3094,19 +3121,19 @@
         <v>56104.133205544349</v>
       </c>
       <c r="G14" s="14">
-        <v>286955.84360657865</v>
+        <v>345077.05236635415</v>
       </c>
       <c r="H14" s="14">
-        <v>214356.00915354106</v>
+        <v>257772.55087766188</v>
       </c>
       <c r="I14" s="14">
-        <v>239958.11501198969</v>
+        <v>297266.7781069809</v>
       </c>
       <c r="J14" s="14">
-        <v>214356.00915354106</v>
+        <v>257772.55087766188</v>
       </c>
       <c r="K14" s="14">
-        <v>-25602.105858448631</v>
+        <v>-39494.227229319018</v>
       </c>
       <c r="L14" s="13">
         <v>0</v>
@@ -3135,19 +3162,19 @@
         <v>29491.308990704383</v>
       </c>
       <c r="G15" s="14">
-        <v>316447.15259728301</v>
+        <v>374568.36135705851</v>
       </c>
       <c r="H15" s="14">
-        <v>267397.85299832979</v>
+        <v>316510.27606320125</v>
       </c>
       <c r="I15" s="14">
-        <v>264878.271952888</v>
+        <v>322186.93504787923</v>
       </c>
       <c r="J15" s="14">
-        <v>267397.85299832979</v>
+        <v>316510.27606320125</v>
       </c>
       <c r="K15" s="14">
-        <v>2519.5810454417951</v>
+        <v>-5676.6589846779825</v>
       </c>
       <c r="L15" s="13">
         <v>0</v>
@@ -3176,19 +3203,19 @@
         <v>36174.805066167937</v>
       </c>
       <c r="G16" s="14">
-        <v>352621.95766345097</v>
+        <v>410743.16642322647</v>
       </c>
       <c r="H16" s="14">
-        <v>282450.18775213772</v>
+        <v>329005.27591328922</v>
       </c>
       <c r="I16" s="14">
-        <v>293854.29077638953</v>
+        <v>351162.95387138077</v>
       </c>
       <c r="J16" s="14">
-        <v>282450.18775213772</v>
+        <v>329005.27591328922</v>
       </c>
       <c r="K16" s="14">
-        <v>-11404.103024251817</v>
+        <v>-22157.677958091546</v>
       </c>
       <c r="L16" s="13">
         <v>0</v>
@@ -3217,19 +3244,19 @@
         <v>41292.779032180362</v>
       </c>
       <c r="G17" s="14">
-        <v>393914.73669563135</v>
+        <v>452035.94545540685</v>
       </c>
       <c r="H17" s="14">
-        <v>301344.76793716248</v>
+        <v>345807.4918069602</v>
       </c>
       <c r="I17" s="14">
-        <v>325443.26614530955</v>
+        <v>382751.92924030079</v>
       </c>
       <c r="J17" s="14">
-        <v>301344.76793716248</v>
+        <v>345807.4918069602</v>
       </c>
       <c r="K17" s="14">
-        <v>-24098.498208147066</v>
+        <v>-36944.437433340587</v>
       </c>
       <c r="L17" s="13">
         <v>0</v>
@@ -3258,19 +3285,19 @@
         <v>56921.333112517765</v>
       </c>
       <c r="G18" s="14">
-        <v>450836.06980814913</v>
+        <v>508957.27856792463</v>
       </c>
       <c r="H18" s="14">
-        <v>313781.89555750543</v>
+        <v>354234.25569030637</v>
       </c>
       <c r="I18" s="14">
-        <v>365060.51285164926</v>
+        <v>422369.17594664049</v>
       </c>
       <c r="J18" s="14">
-        <v>313781.89555750543</v>
+        <v>354234.25569030637</v>
       </c>
       <c r="K18" s="14">
-        <v>-51278.617294143827</v>
+        <v>-68134.920256334124</v>
       </c>
       <c r="L18" s="13">
         <v>0</v>
@@ -3299,19 +3326,19 @@
         <v>57462.171104287372</v>
       </c>
       <c r="G19" s="14">
-        <v>508298.24091243651</v>
+        <v>566419.44967221201</v>
       </c>
       <c r="H19" s="14">
-        <v>349200.87963044492</v>
+        <v>389130.14869040746</v>
       </c>
       <c r="I19" s="14">
-        <v>404537.02305768989</v>
+        <v>461845.68615268113</v>
       </c>
       <c r="J19" s="14">
-        <v>349200.87963044492</v>
+        <v>389130.14869040746</v>
       </c>
       <c r="K19" s="14">
-        <v>-55336.14342724497</v>
+        <v>-72715.537462273671</v>
       </c>
       <c r="L19" s="13">
         <v>0</v>
@@ -3340,19 +3367,19 @@
         <v>48867.831007703237</v>
       </c>
       <c r="G20" s="14">
-        <v>557166.07192013972</v>
+        <v>615287.28067991522</v>
       </c>
       <c r="H20" s="14">
-        <v>401159.5877231498</v>
+        <v>443006.85969304928</v>
       </c>
       <c r="I20" s="14">
-        <v>439721.86278135609</v>
+        <v>497030.52587634732</v>
       </c>
       <c r="J20" s="14">
-        <v>401159.5877231498</v>
+        <v>443006.85969304928</v>
       </c>
       <c r="K20" s="14">
-        <v>-38562.275058206287</v>
+        <v>-54023.666183298046</v>
       </c>
       <c r="L20" s="13">
         <v>0</v>
@@ -3381,19 +3408,19 @@
         <v>46613.848008078661</v>
       </c>
       <c r="G21" s="14">
-        <v>603779.91992821835</v>
+        <v>661901.12868799386</v>
       </c>
       <c r="H21" s="14">
-        <v>436532.87606210314</v>
+        <v>478554.50941341947</v>
       </c>
       <c r="I21" s="14">
-        <v>473423.67442442547</v>
+        <v>530732.3375194167</v>
       </c>
       <c r="J21" s="14">
-        <v>436532.87606210314</v>
+        <v>478554.50941341947</v>
       </c>
       <c r="K21" s="14">
-        <v>-36890.798362322326</v>
+        <v>-52177.828105997236</v>
       </c>
       <c r="L21" s="13">
         <v>0</v>
@@ -3422,19 +3449,19 @@
         <v>30588.543364516147</v>
       </c>
       <c r="G22" s="14">
-        <v>634368.46329273446</v>
+        <v>692489.67205250997</v>
       </c>
       <c r="H22" s="14">
-        <v>500516.70150597335</v>
+        <v>546374.33374857553</v>
       </c>
       <c r="I22" s="14">
-        <v>497558.03436598374</v>
+        <v>554866.69746097503</v>
       </c>
       <c r="J22" s="14">
-        <v>500516.70150597335</v>
+        <v>546374.33374857553</v>
       </c>
       <c r="K22" s="14">
-        <v>2958.667139989615</v>
+        <v>-8492.3637123994995</v>
       </c>
       <c r="L22" s="13">
         <v>0</v>
@@ -3463,19 +3490,19 @@
         <v>34936.150036978543</v>
       </c>
       <c r="G23" s="14">
-        <v>669304.613329713</v>
+        <v>727425.8220894885</v>
       </c>
       <c r="H23" s="14">
-        <v>510679.42763015447</v>
+        <v>555025.91057900758</v>
       </c>
       <c r="I23" s="14">
-        <v>524214.31724401086</v>
+        <v>581522.98033900221</v>
       </c>
       <c r="J23" s="14">
-        <v>510679.42763015447</v>
+        <v>555025.91057900758</v>
       </c>
       <c r="K23" s="14">
-        <v>-13534.889613856387</v>
+        <v>-26497.069759994629</v>
       </c>
       <c r="L23" s="13">
         <v>0</v>
@@ -3504,19 +3531,19 @@
         <v>31933.455347920826</v>
       </c>
       <c r="G24" s="14">
-        <v>701238.06867763377</v>
+        <v>759359.27743740939</v>
       </c>
       <c r="H24" s="14">
-        <v>540654.57034428499</v>
+        <v>585466.02390550438</v>
       </c>
       <c r="I24" s="14">
-        <v>548835.01220042724</v>
+        <v>606143.67529541859</v>
       </c>
       <c r="J24" s="14">
-        <v>540654.57034428499</v>
+        <v>585466.02390550438</v>
       </c>
       <c r="K24" s="14">
-        <v>-8180.4418561422499</v>
+        <v>-20677.651389914216</v>
       </c>
       <c r="L24" s="13">
         <v>0</v>
@@ -3545,19 +3572,19 @@
         <v>34578.974762435661</v>
       </c>
       <c r="G25" s="14">
-        <v>735817.04344006942</v>
+        <v>793938.25219984504</v>
       </c>
       <c r="H25" s="14">
-        <v>552598.59015013964</v>
+        <v>596247.6171804436</v>
       </c>
       <c r="I25" s="14">
-        <v>574803.82180182589</v>
+        <v>632112.48489681724</v>
       </c>
       <c r="J25" s="14">
-        <v>552598.59015013964</v>
+        <v>596247.6171804436</v>
       </c>
       <c r="K25" s="14">
-        <v>-22205.231651686248</v>
+        <v>-35864.867716373643</v>
       </c>
       <c r="L25" s="13">
         <v>0</v>
@@ -3586,19 +3613,19 @@
         <v>46655.693756706351</v>
       </c>
       <c r="G26" s="14">
-        <v>782472.73719677574</v>
+        <v>840593.94595655135</v>
       </c>
       <c r="H26" s="14">
-        <v>563380.39316840307</v>
+        <v>605227.66513830272</v>
       </c>
       <c r="I26" s="14">
-        <v>608395.92264148453</v>
+        <v>665704.58573647588</v>
       </c>
       <c r="J26" s="14">
-        <v>563380.39316840307</v>
+        <v>605227.66513830272</v>
       </c>
       <c r="K26" s="14">
-        <v>-45015.529473081464</v>
+        <v>-60476.920598173165</v>
       </c>
       <c r="L26" s="13">
         <v>0</v>
@@ -3627,19 +3654,19 @@
         <v>38403.866262635274</v>
       </c>
       <c r="G27" s="14">
-        <v>820876.60345941107</v>
+        <v>878997.81221918669</v>
       </c>
       <c r="H27" s="14">
-        <v>619761.83169761067</v>
+        <v>663643.34403409774</v>
       </c>
       <c r="I27" s="14">
-        <v>637390.84148665029</v>
+        <v>694699.50458164164</v>
       </c>
       <c r="J27" s="14">
-        <v>619761.83169761067</v>
+        <v>663643.34403409774</v>
       </c>
       <c r="K27" s="14">
-        <v>-17629.009789039614</v>
+        <v>-31056.160547543899</v>
       </c>
       <c r="L27" s="13">
         <v>0</v>
@@ -3668,19 +3695,19 @@
         <v>35570.876201449297</v>
       </c>
       <c r="G28" s="14">
-        <v>856447.47966086038</v>
+        <v>914568.688420636</v>
       </c>
       <c r="H28" s="14">
-        <v>651756.51282777358</v>
+        <v>695986.75139138824</v>
       </c>
       <c r="I28" s="14">
-        <v>664460.27747876197</v>
+        <v>721768.94057375332</v>
       </c>
       <c r="J28" s="14">
-        <v>651756.51282777358</v>
+        <v>695986.75139138824</v>
       </c>
       <c r="K28" s="14">
-        <v>-12703.764650988393</v>
+        <v>-25782.18918236508</v>
       </c>
       <c r="L28" s="13">
         <v>0</v>
@@ -3709,19 +3736,19 @@
         <v>44544.817404276022</v>
       </c>
       <c r="G29" s="14">
-        <v>900992.29706513637</v>
+        <v>959113.50582491199</v>
       </c>
       <c r="H29" s="14">
-        <v>643308.4880749624</v>
+        <v>684807.03035344032</v>
       </c>
       <c r="I29" s="14">
-        <v>696265.27651067753</v>
+        <v>753573.93960566889</v>
       </c>
       <c r="J29" s="14">
-        <v>643308.4880749624</v>
+        <v>684807.03035344032</v>
       </c>
       <c r="K29" s="14">
-        <v>-52956.788435715134</v>
+        <v>-68766.909252228565</v>
       </c>
       <c r="L29" s="13">
         <v>0</v>
@@ -3750,19 +3777,19 @@
         <v>54158.439814850673</v>
       </c>
       <c r="G30" s="14">
-        <v>955150.73687998706</v>
+        <v>1013271.9456397627</v>
       </c>
       <c r="H30" s="14">
-        <v>654278.2570400479</v>
+        <v>694091.28517906601</v>
       </c>
       <c r="I30" s="14">
-        <v>733363.80791297404</v>
+        <v>790672.47100796539</v>
       </c>
       <c r="J30" s="14">
-        <v>654278.2570400479</v>
+        <v>694091.28517906601</v>
       </c>
       <c r="K30" s="14">
-        <v>-79085.550872926135</v>
+        <v>-96581.185828899383</v>
       </c>
       <c r="L30" s="13">
         <v>0</v>
@@ -3791,19 +3818,19 @@
         <v>57207.211481968698</v>
       </c>
       <c r="G31" s="14">
-        <v>1012357.9483619558</v>
+        <v>1070479.1571217314</v>
       </c>
       <c r="H31" s="14">
-        <v>671193.30721299967</v>
+        <v>709727.66790015774</v>
       </c>
       <c r="I31" s="14">
-        <v>771292.18841627764</v>
+        <v>828600.85151126899</v>
       </c>
       <c r="J31" s="14">
-        <v>671193.30721299967</v>
+        <v>709727.66790015774</v>
       </c>
       <c r="K31" s="14">
-        <v>-100098.88120327797</v>
+        <v>-118873.18361111125</v>
       </c>
       <c r="L31" s="13">
         <v>0</v>
@@ -3832,19 +3859,19 @@
         <v>61293.666720134381</v>
       </c>
       <c r="G32" s="14">
-        <v>1073651.6150820903</v>
+        <v>1131772.8238418659</v>
       </c>
       <c r="H32" s="14">
-        <v>698947.22599237598</v>
+        <v>736784.13422527886</v>
       </c>
       <c r="I32" s="14">
-        <v>811194.36685398582</v>
+        <v>868503.02994897717</v>
       </c>
       <c r="J32" s="14">
-        <v>698947.22599237598</v>
+        <v>736784.13422527886</v>
       </c>
       <c r="K32" s="14">
-        <v>-112247.14086160983</v>
+        <v>-131718.89572369831</v>
       </c>
       <c r="L32" s="13">
         <v>0</v>
@@ -3873,19 +3900,19 @@
         <v>61152.673124809051</v>
       </c>
       <c r="G33" s="14">
-        <v>1134804.2882068993</v>
+        <v>1192925.4969666749</v>
       </c>
       <c r="H33" s="14">
-        <v>731948.744248776</v>
+        <v>769436.92279025714</v>
       </c>
       <c r="I33" s="14">
-        <v>850637.83985309303</v>
+        <v>907946.50294808438</v>
       </c>
       <c r="J33" s="14">
-        <v>731948.744248776</v>
+        <v>769436.92279025714</v>
       </c>
       <c r="K33" s="14">
-        <v>-118689.09560431703</v>
+        <v>-138509.58015782724</v>
       </c>
       <c r="L33" s="13">
         <v>0</v>
@@ -3914,19 +3941,19 @@
         <v>84186.571677867352</v>
       </c>
       <c r="G34" s="14">
-        <v>1218990.8598847666</v>
+        <v>1277112.0686445422</v>
       </c>
       <c r="H34" s="14">
-        <v>683853.85960763111</v>
+        <v>716459.85711214948</v>
       </c>
       <c r="I34" s="14">
-        <v>897866.50568122428</v>
+        <v>955175.16877621564</v>
       </c>
       <c r="J34" s="14">
-        <v>683853.85960763111</v>
+        <v>716459.85711214948</v>
       </c>
       <c r="K34" s="14">
-        <v>-214012.64607359318</v>
+        <v>-238715.31166406616</v>
       </c>
       <c r="L34" s="13">
         <v>0</v>
@@ -3955,19 +3982,19 @@
         <v>59599.526090703235</v>
       </c>
       <c r="G35" s="14">
-        <v>1278590.3859754698</v>
+        <v>1336711.5947352455</v>
       </c>
       <c r="H35" s="14">
-        <v>815740.68088465545</v>
+        <v>852822.01273853681</v>
       </c>
       <c r="I35" s="14">
-        <v>935891.00400915544</v>
+        <v>993199.66710414679</v>
       </c>
       <c r="J35" s="14">
-        <v>815740.68088465545</v>
+        <v>852822.01273853681</v>
       </c>
       <c r="K35" s="14">
-        <v>-120150.32312449999</v>
+        <v>-140377.65436560998</v>
       </c>
       <c r="L35" s="13">
         <v>0</v>
@@ -3996,25 +4023,66 @@
         <v>56129.251308757863</v>
       </c>
       <c r="G36" s="14">
-        <v>1334719.6372842276</v>
+        <v>1392840.8460440033</v>
       </c>
       <c r="H36" s="14">
-        <v>862228.92259935837</v>
+        <v>899775.22506560583</v>
       </c>
       <c r="I36" s="14">
-        <v>972150.5019069548</v>
+        <v>1029459.1650019462</v>
       </c>
       <c r="J36" s="14">
-        <v>862228.92259935837</v>
+        <v>899775.22506560583</v>
       </c>
       <c r="K36" s="14">
-        <v>-109921.57930759643</v>
+        <v>-129683.93993634032</v>
       </c>
       <c r="L36" s="13">
         <v>0</v>
       </c>
       <c r="M36" s="8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="12.75">
+      <c r="A37" s="11">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="12">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="12">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="13">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="13">
+        <v>67026.078556681867</v>
+      </c>
+      <c r="F37" s="14">
+        <v>100942.89323456016</v>
+      </c>
+      <c r="G37" s="14">
+        <v>1493783.7392785635</v>
+      </c>
+      <c r="H37" s="14">
+        <v>991872.36512951169</v>
+      </c>
+      <c r="I37" s="14">
+        <v>1096485.243558628</v>
+      </c>
+      <c r="J37" s="14">
+        <v>991872.36512951169</v>
+      </c>
+      <c r="K37" s="14">
+        <v>-104612.87842911633</v>
+      </c>
+      <c r="L37" s="13">
+        <v>0</v>
+      </c>
+      <c r="M37" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -570,97 +570,97 @@
                   <c:v>51377.034779435366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74710.663544210707</c:v>
+                  <c:v>74710.663567042648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100350.11345533564</c:v>
+                  <c:v>100350.10748708269</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128778.88917591485</c:v>
+                  <c:v>128778.87492621085</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>155203.6067919842</c:v>
+                  <c:v>155203.590814508</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>179769.16663859665</c:v>
+                  <c:v>179769.15072243867</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>214134.33280231245</c:v>
+                  <c:v>214134.31695496323</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>255356.99177955085</c:v>
+                  <c:v>255356.97599164356</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>297266.7781069809</c:v>
+                  <c:v>297266.76237432554</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>322186.93504787923</c:v>
+                  <c:v>322186.91938540846</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>351162.95387138077</c:v>
+                  <c:v>351162.93824504595</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>382751.92924030079</c:v>
+                  <c:v>382751.9136804138</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>422369.17594664049</c:v>
+                  <c:v>422369.15801961161</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>461845.68615268113</c:v>
+                  <c:v>461845.66826321476</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>497030.52587634732</c:v>
+                  <c:v>497030.50804261619</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>530732.3375194167</c:v>
+                  <c:v>530732.31971904507</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>554866.69746097503</c:v>
+                  <c:v>554866.67969700904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>581522.98033900221</c:v>
+                  <c:v>581522.96260100685</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>606143.67529541859</c:v>
+                  <c:v>606143.6576008196</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>632112.48489681724</c:v>
+                  <c:v>632112.46721964586</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>665704.58573647588</c:v>
+                  <c:v>665704.5680755002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>694699.50458164164</c:v>
+                  <c:v>694699.48693877889</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>721768.94057375332</c:v>
+                  <c:v>721768.92296980228</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>753573.93960566889</c:v>
+                  <c:v>753573.92203503218</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>790672.47100796539</c:v>
+                  <c:v>790672.45346393308</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>828600.85151126899</c:v>
+                  <c:v>828600.83400187676</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>868503.02994897717</c:v>
+                  <c:v>868503.01248365466</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>907946.50294808438</c:v>
+                  <c:v>907946.48548944388</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>955175.16877621564</c:v>
+                  <c:v>955175.15132356319</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>993199.66710414679</c:v>
+                  <c:v>993199.64966584125</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1029459.1650019462</c:v>
+                  <c:v>1029301.3619161519</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1096485.243558628</c:v>
+                  <c:v>1096327.4405141789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,97 +831,97 @@
                   <c:v>51147.411965423897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76184.178810496203</c:v>
+                  <c:v>76184.178833328144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103204.61594042573</c:v>
+                  <c:v>103204.60997258668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>129693.83365660271</c:v>
+                  <c:v>129693.81951946815</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>142913.83470434227</c:v>
+                  <c:v>142913.8202788012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>166035.82944402678</c:v>
+                  <c:v>166035.81522551557</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>183458.55830706193</c:v>
+                  <c:v>183458.54560822845</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>207771.52364048728</c:v>
+                  <c:v>207771.51217156922</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>257772.55087766188</c:v>
+                  <c:v>257772.53901736197</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>316510.27606320125</c:v>
+                  <c:v>316510.2627171154</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>329005.27591328922</c:v>
+                  <c:v>329005.26329828385</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>345807.4918069602</c:v>
+                  <c:v>345807.47982536932</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>354234.25569030637</c:v>
+                  <c:v>354234.24242226628</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>389130.14869040746</c:v>
+                  <c:v>389130.1356314994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>443006.85969304928</c:v>
+                  <c:v>443006.84606259165</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>478554.50941341947</c:v>
+                  <c:v>478554.4957595286</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>546374.33374857553</c:v>
+                  <c:v>546374.31888467749</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>555025.91057900758</c:v>
+                  <c:v>555025.89623089111</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>585466.02390550438</c:v>
+                  <c:v>585466.00945034495</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>596247.6171804436</c:v>
+                  <c:v>596247.60311768425</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>605227.66513830272</c:v>
+                  <c:v>605227.65167222498</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>663643.34403409774</c:v>
+                  <c:v>663643.32993153261</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>695986.75139138824</c:v>
+                  <c:v>695986.73721566179</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>684807.03035344032</c:v>
+                  <c:v>684807.01708653278</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>694091.28517906601</c:v>
+                  <c:v>694091.27247761446</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>709727.66790015774</c:v>
+                  <c:v>709727.65564127627</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>736784.13422527886</c:v>
+                  <c:v>736784.12223234656</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>769436.92279025714</c:v>
+                  <c:v>769436.91091454169</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>716459.85711214948</c:v>
+                  <c:v>716459.84678902663</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>852822.01273853681</c:v>
+                  <c:v>852822.00101286138</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>899775.22506560583</c:v>
+                  <c:v>899617.42754541116</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>991872.36512951169</c:v>
+                  <c:v>991710.17082885141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,94 +1095,94 @@
                   <c:v>1473.5152662854962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2854.5024850900954</c:v>
+                  <c:v>2854.5024855039956</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>914.94448068786005</c:v>
+                  <c:v>914.94459325729986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-12289.772087641933</c:v>
+                  <c:v>-12289.770535706804</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-13733.337194569875</c:v>
+                  <c:v>-13733.3354969231</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-30675.774495250516</c:v>
+                  <c:v>-30675.771346734778</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-47585.468139063567</c:v>
+                  <c:v>-47585.463820074336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-39494.227229319018</c:v>
+                  <c:v>-39494.223356963572</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5676.6589846779825</c:v>
+                  <c:v>-5676.656668293057</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-22157.677958091546</c:v>
+                  <c:v>-22157.674946762098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-36944.437433340587</c:v>
+                  <c:v>-36944.433855044481</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-68134.920256334124</c:v>
+                  <c:v>-68134.915597345331</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-72715.537462273671</c:v>
+                  <c:v>-72715.532631715352</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-54023.666183298046</c:v>
+                  <c:v>-54023.661980024539</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-52177.828105997236</c:v>
+                  <c:v>-52177.823959516478</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-8492.3637123994995</c:v>
+                  <c:v>-8492.3608123315498</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-26497.069759994629</c:v>
+                  <c:v>-26497.066370115732</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-20677.651389914216</c:v>
+                  <c:v>-20677.648150474648</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-35864.867716373643</c:v>
+                  <c:v>-35864.864101961604</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-60476.920598173165</c:v>
+                  <c:v>-60476.916403275216</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-31056.160547543899</c:v>
+                  <c:v>-31056.157007246278</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-25782.18918236508</c:v>
+                  <c:v>-25782.18575414049</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-68766.909252228565</c:v>
+                  <c:v>-68766.904948499403</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-96581.185828899383</c:v>
+                  <c:v>-96581.180986318621</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-118873.18361111125</c:v>
+                  <c:v>-118873.17836060049</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-131718.89572369831</c:v>
+                  <c:v>-131718.8902513081</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-138509.58015782724</c:v>
+                  <c:v>-138509.57457490219</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-238715.31166406616</c:v>
+                  <c:v>-238715.30453453655</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-140377.65436560998</c:v>
+                  <c:v>-140377.64865297987</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-129683.93993634032</c:v>
+                  <c:v>-129683.93437074078</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-104612.87842911633</c:v>
+                  <c:v>-104617.26968532754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1204,11 +1204,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103570432"/>
-        <c:axId val="162407552"/>
+        <c:axId val="504891264"/>
+        <c:axId val="504892800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="103570432"/>
+        <c:axId val="504891264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,14 +1251,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162407552"/>
+        <c:crossAx val="504892800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="162407552"/>
+        <c:axId val="504892800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1309,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103570432"/>
+        <c:crossAx val="504891264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1484,97 +1484,97 @@
                   <c:v>37215.471793502948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23333.628764775342</c:v>
+                  <c:v>23333.628787607278</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25639.449911124928</c:v>
+                  <c:v>25639.443920040045</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28428.775720579211</c:v>
+                  <c:v>28428.767439128158</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26424.717616069345</c:v>
+                  <c:v>26424.71588829716</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24565.559846612443</c:v>
+                  <c:v>24565.559907930678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34365.166163715803</c:v>
+                  <c:v>34365.166232524549</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41222.658977238403</c:v>
+                  <c:v>41222.659036680328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41909.786327430069</c:v>
+                  <c:v>41909.786382681988</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24920.156940898323</c:v>
+                  <c:v>24920.157011082942</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28976.018823501534</c:v>
+                  <c:v>28976.018859637465</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31588.975368920033</c:v>
+                  <c:v>31588.975435367818</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39617.246706339683</c:v>
+                  <c:v>39617.24433919783</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39476.510206040606</c:v>
+                  <c:v>39476.510243603116</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35184.839723666191</c:v>
+                  <c:v>35184.839779401416</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33701.811643069363</c:v>
+                  <c:v>33701.811676428908</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24134.359941558272</c:v>
+                  <c:v>24134.359977963992</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26656.282878027137</c:v>
+                  <c:v>26656.282903997755</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24620.694956416326</c:v>
+                  <c:v>24620.694999812695</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25968.8096013986</c:v>
+                  <c:v>25968.809618826315</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>33592.100839658677</c:v>
+                  <c:v>33592.100855854354</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28994.918845165728</c:v>
+                  <c:v>28994.918863278643</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27069.435992111685</c:v>
+                  <c:v>27069.436031023346</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>31804.999031915606</c:v>
+                  <c:v>31804.999065229906</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37098.531402296496</c:v>
+                  <c:v>37098.531428900846</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>37928.380503303619</c:v>
+                  <c:v>37928.380537943682</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>39902.178437708179</c:v>
+                  <c:v>39902.178481777861</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>39443.472999107165</c:v>
+                  <c:v>39443.473005789252</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>47228.665828131299</c:v>
+                  <c:v>47228.66583411934</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>38024.498327931113</c:v>
+                  <c:v>38024.498342278057</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>36259.497897799316</c:v>
+                  <c:v>36101.712250310709</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>67026.078556681867</c:v>
+                  <c:v>67026.078598027074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,8 +1589,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="458232960"/>
-        <c:axId val="446073856"/>
+        <c:axId val="570154368"/>
+        <c:axId val="570152064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1850,11 +1850,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="416578560"/>
-        <c:axId val="446072320"/>
+        <c:axId val="562713728"/>
+        <c:axId val="562715648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="416578560"/>
+        <c:axId val="562713728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,14 +1897,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446072320"/>
+        <c:crossAx val="562715648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446072320"/>
+        <c:axId val="562715648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,12 +1955,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416578560"/>
+        <c:crossAx val="562713728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446073856"/>
+        <c:axId val="570152064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,12 +1997,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458232960"/>
+        <c:crossAx val="570154368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="458232960"/>
+        <c:axId val="570154368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +2011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446073856"/>
+        <c:crossAx val="570152064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2636,25 +2636,25 @@
         <v>44561</v>
       </c>
       <c r="Q4" s="17">
-        <v>128778.88917591485</v>
+        <v>128778.87492621085</v>
       </c>
       <c r="R4" s="7">
-        <v>128778.88917591485</v>
+        <v>128778.87492621085</v>
       </c>
       <c r="S4" s="7">
-        <v>129693.83365660271</v>
+        <v>129693.81951946815</v>
       </c>
       <c r="T4" s="7">
-        <v>914.94448068786005</v>
+        <v>914.94459325729986</v>
       </c>
       <c r="U4" s="7">
         <v>0</v>
       </c>
       <c r="V4" s="18">
-        <v>7.104770716247019E-3</v>
+        <v>7.10477237653734E-3</v>
       </c>
       <c r="W4" s="18">
-        <v>7.104770716247019E-3</v>
+        <v>7.10477237653734E-3</v>
       </c>
       <c r="Y4" s="21">
         <v>44925</v>
@@ -2715,22 +2715,22 @@
         <v>44925</v>
       </c>
       <c r="Q5" s="17">
-        <v>401953.44834350183</v>
+        <v>401953.44479283423</v>
       </c>
       <c r="R5" s="7">
-        <v>530732.3375194167</v>
+        <v>530732.31971904507</v>
       </c>
       <c r="S5" s="7">
-        <v>478554.50941341947</v>
+        <v>478554.4957595286</v>
       </c>
       <c r="T5" s="7">
-        <v>-52177.828105997236</v>
+        <v>-52177.823959516478</v>
       </c>
       <c r="U5" s="7">
         <v>0</v>
       </c>
       <c r="V5" s="18">
-        <v>-9.8312886585864623E-2</v>
+        <v>-9.8312882070453078E-2</v>
       </c>
       <c r="W5" s="18">
         <v>-6.8314848168957498E-2</v>
@@ -2807,28 +2807,28 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="12">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D7" s="13">
-        <v>39.253623134275358</v>
+        <v>39.253623134226025</v>
       </c>
       <c r="E7" s="13">
-        <v>23333.628764775342</v>
+        <v>23333.628787607278</v>
       </c>
       <c r="F7" s="14">
-        <v>23498.116262101325</v>
+        <v>23498.116285094213</v>
       </c>
       <c r="G7" s="14">
-        <v>76721.229649639194</v>
+        <v>76721.229672632093</v>
       </c>
       <c r="H7" s="14">
-        <v>76184.178810496203</v>
+        <v>76184.178833328144</v>
       </c>
       <c r="I7" s="14">
-        <v>74710.663544210707</v>
+        <v>74710.663567042648</v>
       </c>
       <c r="J7" s="14">
-        <v>76184.178810496203</v>
+        <v>76184.178833328144</v>
       </c>
       <c r="K7" s="14">
         <v>1473.5152662854962</v>
@@ -2852,31 +2852,31 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="12">
-        <v>35.450000000000003</v>
+        <v>35.450000762939453</v>
       </c>
       <c r="D8" s="13">
-        <v>38.695499988749994</v>
+        <v>38.695499993324269</v>
       </c>
       <c r="E8" s="13">
-        <v>25639.449911124928</v>
+        <v>25639.443920040045</v>
       </c>
       <c r="F8" s="14">
-        <v>25360.483647759538</v>
+        <v>25360.477721859774</v>
       </c>
       <c r="G8" s="14">
-        <v>102081.71329739873</v>
+        <v>102081.70739449187</v>
       </c>
       <c r="H8" s="14">
-        <v>103204.61594042573</v>
+        <v>103204.60997258668</v>
       </c>
       <c r="I8" s="14">
-        <v>100350.11345533564</v>
+        <v>100350.10748708269</v>
       </c>
       <c r="J8" s="14">
-        <v>103204.61594042573</v>
+        <v>103204.60997258668</v>
       </c>
       <c r="K8" s="14">
-        <v>2854.5024850900954</v>
+        <v>2854.5024855039956</v>
       </c>
       <c r="L8" s="13">
         <v>0</v>
@@ -2893,31 +2893,31 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="12">
-        <v>34.630000000000003</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D9" s="13">
-        <v>38.228579205136612</v>
+        <v>38.2285792249669</v>
       </c>
       <c r="E9" s="13">
-        <v>28428.775720579211</v>
+        <v>28428.767439128158</v>
       </c>
       <c r="F9" s="14">
-        <v>28658.04050927081</v>
+        <v>28658.032161033723</v>
       </c>
       <c r="G9" s="14">
-        <v>130739.75380666954</v>
+        <v>130739.73955552559</v>
       </c>
       <c r="H9" s="14">
-        <v>129693.83365660271</v>
+        <v>129693.81951946815</v>
       </c>
       <c r="I9" s="14">
-        <v>128778.88917591485</v>
+        <v>128778.87492621085</v>
       </c>
       <c r="J9" s="14">
-        <v>129693.83365660271</v>
+        <v>129693.81951946815</v>
       </c>
       <c r="K9" s="14">
-        <v>914.94448068786005</v>
+        <v>914.94459325729986</v>
       </c>
       <c r="L9" s="13">
         <v>0</v>
@@ -2937,31 +2937,31 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="12">
-        <v>31.02</v>
+        <v>31.020000457763672</v>
       </c>
       <c r="D10" s="13">
-        <v>37.709801928118821</v>
+        <v>37.709801948471814</v>
       </c>
       <c r="E10" s="13">
-        <v>26424.717616069345</v>
+        <v>26424.71588829716</v>
       </c>
       <c r="F10" s="14">
-        <v>29657.371966496466</v>
+        <v>29657.370027358153</v>
       </c>
       <c r="G10" s="14">
-        <v>160397.12577316602</v>
+        <v>160397.10958288374</v>
       </c>
       <c r="H10" s="14">
-        <v>142913.83470434227</v>
+        <v>142913.8202788012</v>
       </c>
       <c r="I10" s="14">
-        <v>155203.6067919842</v>
+        <v>155203.590814508</v>
       </c>
       <c r="J10" s="14">
-        <v>142913.83470434227</v>
+        <v>142913.8202788012</v>
       </c>
       <c r="K10" s="14">
-        <v>-12289.772087641933</v>
+        <v>-12289.770535706804</v>
       </c>
       <c r="L10" s="13">
         <v>0</v>
@@ -2981,31 +2981,31 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="12">
-        <v>30.969999309999999</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="D11" s="13">
-        <v>37.189128385091756</v>
+        <v>37.189128403969853</v>
       </c>
       <c r="E11" s="13">
-        <v>24565.559846612443</v>
+        <v>24565.559907930678</v>
       </c>
       <c r="F11" s="14">
-        <v>27852.107751106949</v>
+        <v>27852.107820628753</v>
       </c>
       <c r="G11" s="14">
-        <v>188249.23352427298</v>
+        <v>188249.21740351251</v>
       </c>
       <c r="H11" s="14">
-        <v>166035.82944402678</v>
+        <v>166035.81522551557</v>
       </c>
       <c r="I11" s="14">
-        <v>179769.16663859665</v>
+        <v>179769.15072243867</v>
       </c>
       <c r="J11" s="14">
-        <v>166035.82944402678</v>
+        <v>166035.81522551557</v>
       </c>
       <c r="K11" s="14">
-        <v>-13733.337194569875</v>
+        <v>-13733.3354969231</v>
       </c>
       <c r="L11" s="13">
         <v>0</v>
@@ -3025,31 +3025,31 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="12">
-        <v>27.63999939</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D12" s="13">
-        <v>36.340041456763494</v>
+        <v>36.340041473831867</v>
       </c>
       <c r="E12" s="13">
-        <v>34365.166163715803</v>
+        <v>34365.166232524549</v>
       </c>
       <c r="F12" s="14">
-        <v>43390.361552938171</v>
+        <v>43390.3616398179</v>
       </c>
       <c r="G12" s="14">
-        <v>231639.59507721115</v>
+        <v>231639.57904333039</v>
       </c>
       <c r="H12" s="14">
-        <v>183458.55830706193</v>
+        <v>183458.54560822845</v>
       </c>
       <c r="I12" s="14">
-        <v>214134.33280231245</v>
+        <v>214134.31695496323</v>
       </c>
       <c r="J12" s="14">
-        <v>183458.55830706193</v>
+        <v>183458.54560822845</v>
       </c>
       <c r="K12" s="14">
-        <v>-30675.774495250516</v>
+        <v>-30675.771346734778</v>
       </c>
       <c r="L12" s="13">
         <v>0</v>
@@ -3067,31 +3067,31 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="12">
-        <v>25.129999160000001</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="D13" s="13">
-        <v>35.566115356769217</v>
+        <v>35.566115372584406</v>
       </c>
       <c r="E13" s="13">
-        <v>41222.658977238403</v>
+        <v>41222.659036680328</v>
       </c>
       <c r="F13" s="14">
-        <v>57333.324083598687</v>
+        <v>57333.324166271741</v>
       </c>
       <c r="G13" s="14">
-        <v>288972.91916080983</v>
+        <v>288972.90320960211</v>
       </c>
       <c r="H13" s="14">
-        <v>207771.52364048728</v>
+        <v>207771.51217156922</v>
       </c>
       <c r="I13" s="14">
-        <v>255356.99177955085</v>
+        <v>255356.97599164356</v>
       </c>
       <c r="J13" s="14">
-        <v>207771.52364048728</v>
+        <v>207771.51217156922</v>
       </c>
       <c r="K13" s="14">
-        <v>-47585.468139063567</v>
+        <v>-47585.463820074336</v>
       </c>
       <c r="L13" s="13">
         <v>0</v>
@@ -3109,31 +3109,31 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="12">
-        <v>24.129999160000001</v>
+        <v>24.129999160766602</v>
       </c>
       <c r="D14" s="13">
-        <v>34.740071647956981</v>
+        <v>34.740071662711408</v>
       </c>
       <c r="E14" s="13">
-        <v>41909.786327430069</v>
+        <v>41909.786382681988</v>
       </c>
       <c r="F14" s="14">
-        <v>56104.133205544349</v>
+        <v>56104.133279509435</v>
       </c>
       <c r="G14" s="14">
-        <v>345077.05236635415</v>
+        <v>345077.03648911155</v>
       </c>
       <c r="H14" s="14">
-        <v>257772.55087766188</v>
+        <v>257772.53901736197</v>
       </c>
       <c r="I14" s="14">
-        <v>297266.7781069809</v>
+        <v>297266.76237432554</v>
       </c>
       <c r="J14" s="14">
-        <v>257772.55087766188</v>
+        <v>257772.53901736197</v>
       </c>
       <c r="K14" s="14">
-        <v>-39494.227229319018</v>
+        <v>-39494.223356963572</v>
       </c>
       <c r="L14" s="13">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="12">
-        <v>27.809999470000001</v>
+        <v>27.809999465942383</v>
       </c>
       <c r="D15" s="13">
-        <v>34.118899961366665</v>
+        <v>34.118899975077305</v>
       </c>
       <c r="E15" s="13">
-        <v>24920.156940898323</v>
+        <v>24920.157011082942</v>
       </c>
       <c r="F15" s="14">
-        <v>29491.308990704383</v>
+        <v>29491.309073763103</v>
       </c>
       <c r="G15" s="14">
-        <v>374568.36135705851</v>
+        <v>374568.34556287463</v>
       </c>
       <c r="H15" s="14">
-        <v>316510.27606320125</v>
+        <v>316510.2627171154</v>
       </c>
       <c r="I15" s="14">
-        <v>322186.93504787923</v>
+        <v>322186.91938540846</v>
       </c>
       <c r="J15" s="14">
-        <v>316510.27606320125</v>
+        <v>316510.2627171154</v>
       </c>
       <c r="K15" s="14">
-        <v>-5676.6589846779825</v>
+        <v>-5676.656668293057</v>
       </c>
       <c r="L15" s="13">
         <v>0</v>
@@ -3191,31 +3191,31 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="12">
-        <v>26.329999919999999</v>
+        <v>26.329999923706055</v>
       </c>
       <c r="D16" s="13">
-        <v>33.665700887975071</v>
+        <v>33.665700900829464</v>
       </c>
       <c r="E16" s="13">
-        <v>28976.018823501534</v>
+        <v>28976.018859637465</v>
       </c>
       <c r="F16" s="14">
-        <v>36174.805066167937</v>
+        <v>36174.805111281457</v>
       </c>
       <c r="G16" s="14">
-        <v>410743.16642322647</v>
+        <v>410743.15067415609</v>
       </c>
       <c r="H16" s="14">
-        <v>329005.27591328922</v>
+        <v>329005.26329828385</v>
       </c>
       <c r="I16" s="14">
-        <v>351162.95387138077</v>
+        <v>351162.93824504595</v>
       </c>
       <c r="J16" s="14">
-        <v>329005.27591328922</v>
+        <v>329005.26329828385</v>
       </c>
       <c r="K16" s="14">
-        <v>-22157.677958091546</v>
+        <v>-22157.674946762098</v>
       </c>
       <c r="L16" s="13">
         <v>0</v>
@@ -3232,31 +3232,31 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="12">
-        <v>25.18000031</v>
+        <v>25.180000305175781</v>
       </c>
       <c r="D17" s="13">
-        <v>33.177209264156971</v>
+        <v>33.177209276154976</v>
       </c>
       <c r="E17" s="13">
-        <v>31588.975368920033</v>
+        <v>31588.975435367818</v>
       </c>
       <c r="F17" s="14">
-        <v>41292.779032180362</v>
+        <v>41292.779119040213</v>
       </c>
       <c r="G17" s="14">
-        <v>452035.94545540685</v>
+        <v>452035.92979319632</v>
       </c>
       <c r="H17" s="14">
-        <v>345807.4918069602</v>
+        <v>345807.47982536932</v>
       </c>
       <c r="I17" s="14">
-        <v>382751.92924030079</v>
+        <v>382751.9136804138</v>
       </c>
       <c r="J17" s="14">
-        <v>345807.4918069602</v>
+        <v>345807.47982536932</v>
       </c>
       <c r="K17" s="14">
-        <v>-36944.437433340587</v>
+        <v>-36944.433855044481</v>
       </c>
       <c r="L17" s="13">
         <v>0</v>
@@ -3273,31 +3273,31 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="12">
-        <v>22.61</v>
+        <v>22.610000610351563</v>
       </c>
       <c r="D18" s="13">
-        <v>32.639682710465742</v>
+        <v>32.639682721540886</v>
       </c>
       <c r="E18" s="13">
-        <v>39617.246706339683</v>
+        <v>39617.24433919783</v>
       </c>
       <c r="F18" s="14">
-        <v>56921.333112517765</v>
+        <v>56921.329711451792</v>
       </c>
       <c r="G18" s="14">
-        <v>508957.27856792463</v>
+        <v>508957.2595046481</v>
       </c>
       <c r="H18" s="14">
-        <v>354234.25569030637</v>
+        <v>354234.24242226628</v>
       </c>
       <c r="I18" s="14">
-        <v>422369.17594664049</v>
+        <v>422369.15801961161</v>
       </c>
       <c r="J18" s="14">
-        <v>354234.25569030637</v>
+        <v>354234.24242226628</v>
       </c>
       <c r="K18" s="14">
-        <v>-68134.920256334124</v>
+        <v>-68134.915597345331</v>
       </c>
       <c r="L18" s="13">
         <v>0</v>
@@ -3314,31 +3314,31 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="12">
-        <v>22.239999770000001</v>
+        <v>22.239999771118164</v>
       </c>
       <c r="D19" s="13">
-        <v>32.234052986719142</v>
+        <v>32.234052997346801</v>
       </c>
       <c r="E19" s="13">
-        <v>39476.510206040606</v>
+        <v>39476.510243603116</v>
       </c>
       <c r="F19" s="14">
-        <v>57462.171104287372</v>
+        <v>57462.171158963516</v>
       </c>
       <c r="G19" s="14">
-        <v>566419.44967221201</v>
+        <v>566419.43066361162</v>
       </c>
       <c r="H19" s="14">
-        <v>389130.14869040746</v>
+        <v>389130.1356314994</v>
       </c>
       <c r="I19" s="14">
-        <v>461845.68615268113</v>
+        <v>461845.66826321476</v>
       </c>
       <c r="J19" s="14">
-        <v>389130.14869040746</v>
+        <v>389130.1356314994</v>
       </c>
       <c r="K19" s="14">
-        <v>-72715.537462273671</v>
+        <v>-72715.532631715352</v>
       </c>
       <c r="L19" s="13">
         <v>0</v>
@@ -3355,31 +3355,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="12">
-        <v>22.809999470000001</v>
+        <v>22.809999465942383</v>
       </c>
       <c r="D20" s="13">
-        <v>31.717553830421821</v>
+        <v>31.717553840474388</v>
       </c>
       <c r="E20" s="13">
-        <v>35184.839723666191</v>
+        <v>35184.839779401416</v>
       </c>
       <c r="F20" s="14">
-        <v>48867.831007703237</v>
+        <v>48867.83108511327</v>
       </c>
       <c r="G20" s="14">
-        <v>615287.28067991522</v>
+        <v>615287.26174872485</v>
       </c>
       <c r="H20" s="14">
-        <v>443006.85969304928</v>
+        <v>443006.84606259165</v>
       </c>
       <c r="I20" s="14">
-        <v>497030.52587634732</v>
+        <v>497030.50804261619</v>
       </c>
       <c r="J20" s="14">
-        <v>443006.85969304928</v>
+        <v>443006.84606259165</v>
       </c>
       <c r="K20" s="14">
-        <v>-54023.666183298046</v>
+        <v>-54023.661980024539</v>
       </c>
       <c r="L20" s="13">
         <v>0</v>
@@ -3396,31 +3396,31 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="12">
-        <v>22.739999770000001</v>
+        <v>22.739999771118164</v>
       </c>
       <c r="D21" s="13">
-        <v>31.272103983435283</v>
+        <v>31.2721039929989</v>
       </c>
       <c r="E21" s="13">
-        <v>33701.811643069363</v>
+        <v>33701.811676428908</v>
       </c>
       <c r="F21" s="14">
-        <v>46613.848008078661</v>
+        <v>46613.848054219117</v>
       </c>
       <c r="G21" s="14">
-        <v>661901.12868799386</v>
+        <v>661901.109802944</v>
       </c>
       <c r="H21" s="14">
-        <v>478554.50941341947</v>
+        <v>478554.4957595286</v>
       </c>
       <c r="I21" s="14">
-        <v>530732.3375194167</v>
+        <v>530732.31971904507</v>
       </c>
       <c r="J21" s="14">
-        <v>478554.50941341947</v>
+        <v>478554.4957595286</v>
       </c>
       <c r="K21" s="14">
-        <v>-52177.828105997236</v>
+        <v>-52177.823959516478</v>
       </c>
       <c r="L21" s="13">
         <v>0</v>
@@ -3440,28 +3440,28 @@
         <v>24.899999618530273</v>
       </c>
       <c r="D22" s="13">
-        <v>31.009964160696924</v>
+        <v>31.009964169913562</v>
       </c>
       <c r="E22" s="13">
-        <v>24134.359941558272</v>
+        <v>24134.359977963992</v>
       </c>
       <c r="F22" s="14">
-        <v>30588.543364516147</v>
+        <v>30588.543410657745</v>
       </c>
       <c r="G22" s="14">
-        <v>692489.67205250997</v>
+        <v>692489.65321360179</v>
       </c>
       <c r="H22" s="14">
-        <v>546374.33374857553</v>
+        <v>546374.31888467749</v>
       </c>
       <c r="I22" s="14">
-        <v>554866.69746097503</v>
+        <v>554866.67969700904</v>
       </c>
       <c r="J22" s="14">
-        <v>546374.33374857553</v>
+        <v>546374.31888467749</v>
       </c>
       <c r="K22" s="14">
-        <v>-8492.3637123994995</v>
+        <v>-8492.3608123315498</v>
       </c>
       <c r="L22" s="13">
         <v>0</v>
@@ -3478,31 +3478,31 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="C23" s="12">
-        <v>23.979999540000001</v>
+        <v>23.979999542236328</v>
       </c>
       <c r="D23" s="13">
-        <v>30.728425585070163</v>
+        <v>30.72842559388133</v>
       </c>
       <c r="E23" s="13">
-        <v>26656.282878027137</v>
+        <v>26656.282903997755</v>
       </c>
       <c r="F23" s="14">
-        <v>34936.150036978543</v>
+        <v>34936.150071016047</v>
       </c>
       <c r="G23" s="14">
-        <v>727425.8220894885</v>
+        <v>727425.80328461784</v>
       </c>
       <c r="H23" s="14">
-        <v>555025.91057900758</v>
+        <v>555025.89623089111</v>
       </c>
       <c r="I23" s="14">
-        <v>581522.98033900221</v>
+        <v>581522.96260100685</v>
       </c>
       <c r="J23" s="14">
-        <v>555025.91057900758</v>
+        <v>555025.89623089111</v>
       </c>
       <c r="K23" s="14">
-        <v>-26497.069759994629</v>
+        <v>-26497.066370115732</v>
       </c>
       <c r="L23" s="13">
         <v>0</v>
@@ -3519,31 +3519,31 @@
         <v>0.77100002765655518</v>
       </c>
       <c r="C24" s="12">
-        <v>24.159999849999998</v>
+        <v>24.159999847412109</v>
       </c>
       <c r="D24" s="13">
-        <v>30.393087180738309</v>
+        <v>30.393087189136843</v>
       </c>
       <c r="E24" s="13">
-        <v>24620.694956416326</v>
+        <v>24620.694999812695</v>
       </c>
       <c r="F24" s="14">
-        <v>31933.455347920826</v>
+        <v>31933.455404206645</v>
       </c>
       <c r="G24" s="14">
-        <v>759359.27743740939</v>
+        <v>759359.25868882448</v>
       </c>
       <c r="H24" s="14">
-        <v>585466.02390550438</v>
+        <v>585466.00945034495</v>
       </c>
       <c r="I24" s="14">
-        <v>606143.67529541859</v>
+        <v>606143.6576008196</v>
       </c>
       <c r="J24" s="14">
-        <v>585466.02390550438</v>
+        <v>585466.00945034495</v>
       </c>
       <c r="K24" s="14">
-        <v>-20677.651389914216</v>
+        <v>-20677.648150474648</v>
       </c>
       <c r="L24" s="13">
         <v>0</v>
@@ -3560,31 +3560,31 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="C25" s="12">
-        <v>23.579999919999999</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D25" s="13">
-        <v>30.154382097569265</v>
+        <v>30.1543821056874</v>
       </c>
       <c r="E25" s="13">
-        <v>25968.8096013986</v>
+        <v>25968.809618826315</v>
       </c>
       <c r="F25" s="14">
-        <v>34578.974762435661</v>
+        <v>34578.974785641672</v>
       </c>
       <c r="G25" s="14">
-        <v>793938.25219984504</v>
+        <v>793938.23347446613</v>
       </c>
       <c r="H25" s="14">
-        <v>596247.6171804436</v>
+        <v>596247.60311768425</v>
       </c>
       <c r="I25" s="14">
-        <v>632112.48489681724</v>
+        <v>632112.46721964586</v>
       </c>
       <c r="J25" s="14">
-        <v>596247.6171804436</v>
+        <v>596247.60311768425</v>
       </c>
       <c r="K25" s="14">
-        <v>-35864.867716373643</v>
+        <v>-35864.864101961604</v>
       </c>
       <c r="L25" s="13">
         <v>0</v>
@@ -3601,31 +3601,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C26" s="12">
-        <v>21.329999919999999</v>
+        <v>21.329999923706055</v>
       </c>
       <c r="D26" s="13">
-        <v>29.834329246495866</v>
+        <v>29.834329254302094</v>
       </c>
       <c r="E26" s="13">
-        <v>33592.100839658677</v>
+        <v>33592.100855854354</v>
       </c>
       <c r="F26" s="14">
-        <v>46655.693756706351</v>
+        <v>46655.693779200345</v>
       </c>
       <c r="G26" s="14">
-        <v>840593.94595655135</v>
+        <v>840593.92725366645</v>
       </c>
       <c r="H26" s="14">
-        <v>605227.66513830272</v>
+        <v>605227.65167222498</v>
       </c>
       <c r="I26" s="14">
-        <v>665704.58573647588</v>
+        <v>665704.5680755002</v>
       </c>
       <c r="J26" s="14">
-        <v>605227.66513830272</v>
+        <v>605227.65167222498</v>
       </c>
       <c r="K26" s="14">
-        <v>-60476.920598173165</v>
+        <v>-60476.916403275216</v>
       </c>
       <c r="L26" s="13">
         <v>0</v>
@@ -3642,31 +3642,31 @@
         <v>0.75499999523162842</v>
       </c>
       <c r="C27" s="12">
-        <v>22.200000760000002</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="D27" s="13">
-        <v>29.540486543586262</v>
+        <v>29.540486551111261</v>
       </c>
       <c r="E27" s="13">
-        <v>28994.918845165728</v>
+        <v>28994.918863278643</v>
       </c>
       <c r="F27" s="14">
-        <v>38403.866262635274</v>
+        <v>38403.866286625889</v>
       </c>
       <c r="G27" s="14">
-        <v>878997.81221918669</v>
+        <v>878997.7935402923</v>
       </c>
       <c r="H27" s="14">
-        <v>663643.34403409774</v>
+        <v>663643.32993153261</v>
       </c>
       <c r="I27" s="14">
-        <v>694699.50458164164</v>
+        <v>694699.48693877889</v>
       </c>
       <c r="J27" s="14">
-        <v>663643.34403409774</v>
+        <v>663643.32993153261</v>
       </c>
       <c r="K27" s="14">
-        <v>-31056.160547543899</v>
+        <v>-31056.157007246278</v>
       </c>
       <c r="L27" s="13">
         <v>0</v>
@@ -3683,31 +3683,31 @@
         <v>0.76099997758865356</v>
       </c>
       <c r="C28" s="12">
-        <v>22.409999849999998</v>
+        <v>22.409999847412109</v>
       </c>
       <c r="D28" s="13">
-        <v>29.263021620154856</v>
+        <v>29.26302162741802</v>
       </c>
       <c r="E28" s="13">
-        <v>27069.435992111685</v>
+        <v>27069.436031023346</v>
       </c>
       <c r="F28" s="14">
-        <v>35570.876201449297</v>
+        <v>35570.876252581569</v>
       </c>
       <c r="G28" s="14">
-        <v>914568.688420636</v>
+        <v>914568.6697928739</v>
       </c>
       <c r="H28" s="14">
-        <v>695986.75139138824</v>
+        <v>695986.73721566179</v>
       </c>
       <c r="I28" s="14">
-        <v>721768.94057375332</v>
+        <v>721768.92296980228</v>
       </c>
       <c r="J28" s="14">
-        <v>695986.75139138824</v>
+        <v>695986.73721566179</v>
       </c>
       <c r="K28" s="14">
-        <v>-25782.18918236508</v>
+        <v>-25782.18575414049</v>
       </c>
       <c r="L28" s="13">
         <v>0</v>
@@ -3724,31 +3724,31 @@
         <v>0.71399998664855957</v>
       </c>
       <c r="C29" s="12">
-        <v>20.899999619999999</v>
+        <v>20.899999618530273</v>
       </c>
       <c r="D29" s="13">
-        <v>28.951898109092557</v>
+        <v>28.951898116056832</v>
       </c>
       <c r="E29" s="13">
-        <v>31804.999031915606</v>
+        <v>31804.999065229906</v>
       </c>
       <c r="F29" s="14">
-        <v>44544.817404276022</v>
+        <v>44544.817450934708</v>
       </c>
       <c r="G29" s="14">
-        <v>959113.50582491199</v>
+        <v>959113.48724380857</v>
       </c>
       <c r="H29" s="14">
-        <v>684807.03035344032</v>
+        <v>684807.01708653278</v>
       </c>
       <c r="I29" s="14">
-        <v>753573.93960566889</v>
+        <v>753573.92203503218</v>
       </c>
       <c r="J29" s="14">
-        <v>684807.03035344032</v>
+        <v>684807.01708653278</v>
       </c>
       <c r="K29" s="14">
-        <v>-68766.909252228565</v>
+        <v>-68766.904948499403</v>
       </c>
       <c r="L29" s="13">
         <v>0</v>
@@ -3768,28 +3768,28 @@
         <v>19.25</v>
       </c>
       <c r="D30" s="13">
-        <v>28.642033266404177</v>
+        <v>28.642033273139454</v>
       </c>
       <c r="E30" s="13">
-        <v>37098.531402296496</v>
+        <v>37098.531428900846</v>
       </c>
       <c r="F30" s="14">
-        <v>54158.439814850673</v>
+        <v>54158.439853689146</v>
       </c>
       <c r="G30" s="14">
-        <v>1013271.9456397627</v>
+        <v>1013271.9270974977</v>
       </c>
       <c r="H30" s="14">
-        <v>694091.28517906601</v>
+        <v>694091.27247761446</v>
       </c>
       <c r="I30" s="14">
-        <v>790672.47100796539</v>
+        <v>790672.45346393308</v>
       </c>
       <c r="J30" s="14">
-        <v>694091.28517906601</v>
+        <v>694091.27247761446</v>
       </c>
       <c r="K30" s="14">
-        <v>-96581.185828899383</v>
+        <v>-96581.180986318621</v>
       </c>
       <c r="L30" s="13">
         <v>0</v>
@@ -3806,31 +3806,31 @@
         <v>0.66299998760223389</v>
       </c>
       <c r="C31" s="12">
-        <v>18.770000459999999</v>
+        <v>18.770000457763672</v>
       </c>
       <c r="D31" s="13">
-        <v>28.372122106405978</v>
+        <v>28.372122112939287</v>
       </c>
       <c r="E31" s="13">
-        <v>37928.380503303619</v>
+        <v>37928.380537943682</v>
       </c>
       <c r="F31" s="14">
-        <v>57207.211481968698</v>
+        <v>57207.211534216156</v>
       </c>
       <c r="G31" s="14">
-        <v>1070479.1571217314</v>
+        <v>1070479.1386317138</v>
       </c>
       <c r="H31" s="14">
-        <v>709727.66790015774</v>
+        <v>709727.65564127627</v>
       </c>
       <c r="I31" s="14">
-        <v>828600.85151126899</v>
+        <v>828600.83400187676</v>
       </c>
       <c r="J31" s="14">
-        <v>709727.66790015774</v>
+        <v>709727.65564127627</v>
       </c>
       <c r="K31" s="14">
-        <v>-118873.18361111125</v>
+        <v>-118873.17836060049</v>
       </c>
       <c r="L31" s="13">
         <v>0</v>
@@ -3847,31 +3847,31 @@
         <v>0.65100002288818359</v>
       </c>
       <c r="C32" s="12">
-        <v>17.93000031</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="D32" s="13">
-        <v>28.031817636002071</v>
+        <v>28.031817642334733</v>
       </c>
       <c r="E32" s="13">
-        <v>39902.178437708179</v>
+        <v>39902.178481777861</v>
       </c>
       <c r="F32" s="14">
-        <v>61293.666720134381</v>
+        <v>61293.666787829745</v>
       </c>
       <c r="G32" s="14">
-        <v>1131772.8238418659</v>
+        <v>1131772.8054195435</v>
       </c>
       <c r="H32" s="14">
-        <v>736784.13422527886</v>
+        <v>736784.12223234656</v>
       </c>
       <c r="I32" s="14">
-        <v>868503.02994897717</v>
+        <v>868503.01248365466</v>
       </c>
       <c r="J32" s="14">
-        <v>736784.13422527886</v>
+        <v>736784.12223234656</v>
       </c>
       <c r="K32" s="14">
-        <v>-131718.89572369831</v>
+        <v>-131718.8902513081</v>
       </c>
       <c r="L32" s="13">
         <v>0</v>
@@ -3888,31 +3888,31 @@
         <v>0.64499998092651367</v>
       </c>
       <c r="C33" s="12">
-        <v>17.709999079999999</v>
+        <v>17.709999084472656</v>
       </c>
       <c r="D33" s="13">
-        <v>27.695688446862572</v>
+        <v>27.695688453026897</v>
       </c>
       <c r="E33" s="13">
-        <v>39443.472999107165</v>
+        <v>39443.473005789252</v>
       </c>
       <c r="F33" s="14">
-        <v>61152.673124809051</v>
+        <v>61152.67313516888</v>
       </c>
       <c r="G33" s="14">
-        <v>1192925.4969666749</v>
+        <v>1192925.4785547124</v>
       </c>
       <c r="H33" s="14">
-        <v>769436.92279025714</v>
+        <v>769436.91091454169</v>
       </c>
       <c r="I33" s="14">
-        <v>907946.50294808438</v>
+        <v>907946.48548944388</v>
       </c>
       <c r="J33" s="14">
-        <v>769436.92279025714</v>
+        <v>769436.91091454169</v>
       </c>
       <c r="K33" s="14">
-        <v>-138509.58015782724</v>
+        <v>-138509.57457490219</v>
       </c>
       <c r="L33" s="13">
         <v>0</v>
@@ -3929,31 +3929,31 @@
         <v>0.56099998950958252</v>
       </c>
       <c r="C34" s="12">
-        <v>15.380000109999999</v>
+        <v>15.380000114440918</v>
       </c>
       <c r="D34" s="13">
-        <v>27.336624370286405</v>
+        <v>27.336624376243282</v>
       </c>
       <c r="E34" s="13">
-        <v>47228.665828131299</v>
+        <v>47228.66583411934</v>
       </c>
       <c r="F34" s="14">
-        <v>84186.571677867352</v>
+        <v>84186.571688541211</v>
       </c>
       <c r="G34" s="14">
-        <v>1277112.0686445422</v>
+        <v>1277112.0502432536</v>
       </c>
       <c r="H34" s="14">
-        <v>716459.85711214948</v>
+        <v>716459.84678902663</v>
       </c>
       <c r="I34" s="14">
-        <v>955175.16877621564</v>
+        <v>955175.15132356319</v>
       </c>
       <c r="J34" s="14">
-        <v>716459.85711214948</v>
+        <v>716459.84678902663</v>
       </c>
       <c r="K34" s="14">
-        <v>-238715.31166406616</v>
+        <v>-238715.30453453655</v>
       </c>
       <c r="L34" s="13">
         <v>0</v>
@@ -3970,31 +3970,31 @@
         <v>0.6380000114440918</v>
       </c>
       <c r="C35" s="12">
-        <v>17.479999540000001</v>
+        <v>17.479999542236328</v>
       </c>
       <c r="D35" s="13">
-        <v>27.106454812893954</v>
+        <v>27.106454818762419</v>
       </c>
       <c r="E35" s="13">
-        <v>38024.498327931113</v>
+        <v>38024.498342278057</v>
       </c>
       <c r="F35" s="14">
-        <v>59599.526090703235</v>
+        <v>59599.526113190608</v>
       </c>
       <c r="G35" s="14">
-        <v>1336711.5947352455</v>
+        <v>1336711.5763564443</v>
       </c>
       <c r="H35" s="14">
-        <v>852822.01273853681</v>
+        <v>852822.00101286138</v>
       </c>
       <c r="I35" s="14">
-        <v>993199.66710414679</v>
+        <v>993199.64966584125</v>
       </c>
       <c r="J35" s="14">
-        <v>852822.01273853681</v>
+        <v>852822.00101286138</v>
       </c>
       <c r="K35" s="14">
-        <v>-140377.65436560998</v>
+        <v>-140377.64865297987</v>
       </c>
       <c r="L35" s="13">
         <v>0</v>
@@ -4011,31 +4011,31 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="12">
-        <v>17.659999849999998</v>
+        <v>17.700000762939453</v>
       </c>
       <c r="D36" s="13">
-        <v>26.839619570961851</v>
+        <v>26.839674750359887</v>
       </c>
       <c r="E36" s="13">
-        <v>36259.497897799316</v>
+        <v>36101.712250310709</v>
       </c>
       <c r="F36" s="14">
-        <v>56129.251308757863</v>
+        <v>55885.001090904167</v>
       </c>
       <c r="G36" s="14">
-        <v>1392840.8460440033</v>
+        <v>1392596.5774473485</v>
       </c>
       <c r="H36" s="14">
-        <v>899775.22506560583</v>
+        <v>899617.42754541116</v>
       </c>
       <c r="I36" s="14">
-        <v>1029459.1650019462</v>
+        <v>1029301.3619161519</v>
       </c>
       <c r="J36" s="14">
-        <v>899775.22506560583</v>
+        <v>899617.42754541116</v>
       </c>
       <c r="K36" s="14">
-        <v>-129683.93993634032</v>
+        <v>-129683.93437074078</v>
       </c>
       <c r="L36" s="13">
         <v>0</v>
@@ -4052,31 +4052,31 @@
         <v>0.66399997472763062</v>
       </c>
       <c r="C37" s="12">
-        <v>18.11000061</v>
+        <v>18.110000610351563</v>
       </c>
       <c r="D37" s="13">
-        <v>26.594314351352136</v>
+        <v>26.594314356937268</v>
       </c>
       <c r="E37" s="13">
-        <v>67026.078556681867</v>
+        <v>67026.078598027074</v>
       </c>
       <c r="F37" s="14">
-        <v>100942.89323456016</v>
+        <v>100942.89329682705</v>
       </c>
       <c r="G37" s="14">
-        <v>1493783.7392785635</v>
+        <v>1493539.4707441756</v>
       </c>
       <c r="H37" s="14">
-        <v>991872.36512951169</v>
+        <v>991710.17082885141</v>
       </c>
       <c r="I37" s="14">
-        <v>1096485.243558628</v>
+        <v>1096327.4405141789</v>
       </c>
       <c r="J37" s="14">
-        <v>991872.36512951169</v>
+        <v>991710.17082885141</v>
       </c>
       <c r="K37" s="14">
-        <v>-104612.87842911633</v>
+        <v>-104617.26968532754</v>
       </c>
       <c r="L37" s="13">
         <v>0</v>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -1204,11 +1204,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504891264"/>
-        <c:axId val="504892800"/>
+        <c:axId val="68561536"/>
+        <c:axId val="68572672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504891264"/>
+        <c:axId val="68561536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,14 +1251,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504892800"/>
+        <c:crossAx val="68572672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504892800"/>
+        <c:axId val="68572672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1309,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504891264"/>
+        <c:crossAx val="68561536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1589,8 +1589,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="570154368"/>
-        <c:axId val="570152064"/>
+        <c:axId val="507349248"/>
+        <c:axId val="507347712"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1850,11 +1850,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="562713728"/>
-        <c:axId val="562715648"/>
+        <c:axId val="500877952"/>
+        <c:axId val="506636160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="562713728"/>
+        <c:axId val="500877952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,14 +1897,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562715648"/>
+        <c:crossAx val="506636160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="562715648"/>
+        <c:axId val="506636160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,12 +1955,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562713728"/>
+        <c:crossAx val="500877952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="570152064"/>
+        <c:axId val="507347712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,12 +1997,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570154368"/>
+        <c:crossAx val="507349248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="570154368"/>
+        <c:axId val="507349248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +2011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="570152064"/>
+        <c:crossAx val="507347712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -259,7 +259,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,6 +318,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,7 +443,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -547,6 +548,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -556,7 +560,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -661,6 +665,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1096327.4405141789</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1159999.2125700833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,7 +710,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -808,6 +815,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -817,7 +827,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -922,6 +932,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>991710.17082885141</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1034472.3924308628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -964,7 +977,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1069,6 +1082,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,7 +1094,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1183,6 +1199,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-104617.26968532754</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-125526.82013922057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1204,11 +1223,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68561536"/>
-        <c:axId val="68572672"/>
+        <c:axId val="77423744"/>
+        <c:axId val="77425280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="68561536"/>
+        <c:axId val="77423744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,14 +1270,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68572672"/>
+        <c:crossAx val="77425280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="68572672"/>
+        <c:axId val="77425280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1328,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68561536"/>
+        <c:crossAx val="77423744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1470,7 +1489,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1575,6 +1594,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>67026.078598027074</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63671.772055904468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,8 +1611,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="507349248"/>
-        <c:axId val="507347712"/>
+        <c:axId val="390674688"/>
+        <c:axId val="384527360"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1615,7 +1637,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1720,6 +1742,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1729,7 +1754,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1834,6 +1859,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1850,11 +1878,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500877952"/>
-        <c:axId val="506636160"/>
+        <c:axId val="181834112"/>
+        <c:axId val="181835648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500877952"/>
+        <c:axId val="181834112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,14 +1925,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506636160"/>
+        <c:crossAx val="181835648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506636160"/>
+        <c:axId val="181835648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,12 +1983,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500877952"/>
+        <c:crossAx val="181834112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="507347712"/>
+        <c:axId val="384527360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,12 +2025,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507349248"/>
+        <c:crossAx val="390674688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="507349248"/>
+        <c:axId val="390674688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +2039,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507347712"/>
+        <c:crossAx val="384527360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2420,7 +2448,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2593,6 +2621,16 @@
         <f>-Z3</f>
         <v>-71470.226080923632</v>
       </c>
+      <c r="AB3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>128778.87492621085</v>
+      </c>
+      <c r="AD3" s="10">
+        <f>-AC3</f>
+        <v>-128778.87492621085</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="11">
@@ -2666,9 +2704,16 @@
         <f>-Z4</f>
         <v>-401953.44834350183</v>
       </c>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
+      <c r="AB4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>401953.44479283423</v>
+      </c>
+      <c r="AD4" s="8">
+        <f>-AC4</f>
+        <v>-401953.44479283423</v>
+      </c>
       <c r="AE4" s="16"/>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
@@ -2742,9 +2787,16 @@
       <c r="AA5" s="8">
         <v>436532.87606210314</v>
       </c>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
+      <c r="AB5" s="21">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="AD5" s="8">
+        <f>-AC5</f>
+        <v>-377214.1657703988</v>
+      </c>
       <c r="AE5" s="16"/>
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
@@ -2789,14 +2841,42 @@
       <c r="M6" s="8">
         <v>1</v>
       </c>
+      <c r="P6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="R6" s="7">
+        <v>907946.48548944388</v>
+      </c>
+      <c r="S6" s="7">
+        <v>769436.91091454169</v>
+      </c>
+      <c r="T6" s="7">
+        <v>-138509.57457490219</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="18">
+        <v>-0.15255257527676455</v>
+      </c>
+      <c r="W6" s="18">
+        <v>-9.2614134360843758E-2</v>
+      </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="19">
         <v>-6.8314848168957498E-2</v>
       </c>
-      <c r="AB6" s="8"/>
+      <c r="AB6" s="21">
+        <v>45289</v>
+      </c>
       <c r="AC6" s="8"/>
-      <c r="AD6" s="19"/>
+      <c r="AD6" s="19">
+        <v>769436.91091454169</v>
+      </c>
       <c r="AE6" s="16"/>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
@@ -2842,6 +2922,9 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
+      <c r="AD7" s="9">
+        <v>-9.2614134360843758E-2</v>
+      </c>
       <c r="AG7" s="9"/>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
@@ -4084,6 +4167,50 @@
       <c r="M37" s="8">
         <v>1</v>
       </c>
+    </row>
+    <row r="38" spans="1:13" ht="12.75">
+      <c r="A38" s="11">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="12">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="12">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="13">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="13">
+        <v>63671.772055904468</v>
+      </c>
+      <c r="F38" s="14">
+        <v>97956.575986724973</v>
+      </c>
+      <c r="G38" s="14">
+        <v>1591496.0467309006</v>
+      </c>
+      <c r="H38" s="14">
+        <v>1034472.3924308628</v>
+      </c>
+      <c r="I38" s="14">
+        <v>1159999.2125700833</v>
+      </c>
+      <c r="J38" s="14">
+        <v>1034472.3924308628</v>
+      </c>
+      <c r="K38" s="14">
+        <v>-125526.82013922057</v>
+      </c>
+      <c r="L38" s="13">
+        <v>0</v>
+      </c>
+      <c r="M38" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -259,7 +259,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,7 +318,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -443,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -551,6 +550,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -560,7 +562,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -668,6 +670,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1159999.2125700833</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1225836.7818952375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,7 +715,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -818,6 +823,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,7 +835,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -935,6 +943,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1034472.3924308628</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1078029.0193784379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -977,7 +988,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1085,6 +1096,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,7 +1108,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1202,6 +1216,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-125526.82013922057</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-147807.76251679962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1223,11 +1240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77423744"/>
-        <c:axId val="77425280"/>
+        <c:axId val="105022592"/>
+        <c:axId val="105607552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="77423744"/>
+        <c:axId val="105022592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,14 +1287,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77425280"/>
+        <c:crossAx val="105607552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="77425280"/>
+        <c:axId val="105607552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,7 +1345,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77423744"/>
+        <c:crossAx val="105022592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1489,7 +1506,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1597,6 +1614,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>63671.772055904468</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65837.569325154225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,8 +1631,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="390674688"/>
-        <c:axId val="384527360"/>
+        <c:axId val="493800832"/>
+        <c:axId val="493799296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1637,7 +1657,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1745,6 +1765,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1754,7 +1777,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1862,6 +1885,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1878,11 +1904,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="181834112"/>
-        <c:axId val="181835648"/>
+        <c:axId val="462902400"/>
+        <c:axId val="462904320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="181834112"/>
+        <c:axId val="462902400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1925,14 +1951,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181835648"/>
+        <c:crossAx val="462904320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="181835648"/>
+        <c:axId val="462904320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1983,12 +2009,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181834112"/>
+        <c:crossAx val="462902400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="384527360"/>
+        <c:axId val="493799296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,12 +2051,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390674688"/>
+        <c:crossAx val="493800832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="390674688"/>
+        <c:axId val="493800832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2039,7 +2065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="384527360"/>
+        <c:crossAx val="493799296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4209,8 +4235,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="28"/>
+    <row r="39" spans="1:13" ht="12.75">
+      <c r="A39" s="11">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="12">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="12">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="13">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="13">
+        <v>65837.569325154225</v>
+      </c>
+      <c r="F39" s="14">
+        <v>103518.19441059174</v>
+      </c>
+      <c r="G39" s="14">
+        <v>1695014.2411414925</v>
+      </c>
+      <c r="H39" s="14">
+        <v>1078029.0193784379</v>
+      </c>
+      <c r="I39" s="14">
+        <v>1225836.7818952375</v>
+      </c>
+      <c r="J39" s="14">
+        <v>1078029.0193784379</v>
+      </c>
+      <c r="K39" s="14">
+        <v>-147807.76251679962</v>
+      </c>
+      <c r="L39" s="13">
+        <v>0</v>
+      </c>
+      <c r="M39" s="8">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -553,6 +553,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -562,7 +565,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -673,6 +676,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1225836.7818952375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1290942.7174525696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -715,7 +721,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -826,6 +832,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -835,7 +844,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -939,13 +948,16 @@
                   <c:v>899617.42754541116</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>991710.17082885141</c:v>
+                  <c:v>991711.17082885141</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1034472.3924308628</c:v>
+                  <c:v>1034473.3924308628</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1078029.0193784379</c:v>
+                  <c:v>1078030.0193784379</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1138049.9776802531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,7 +1000,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1099,6 +1111,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1108,7 +1123,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1212,13 +1227,16 @@
                   <c:v>-129683.93437074078</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-104617.26968532754</c:v>
+                  <c:v>-104616.26968532754</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-125526.82013922057</c:v>
+                  <c:v>-125525.82013922057</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-147807.76251679962</c:v>
+                  <c:v>-147806.76251679962</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-152892.73977231653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1240,11 +1258,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105022592"/>
-        <c:axId val="105607552"/>
+        <c:axId val="427735296"/>
+        <c:axId val="427835392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="105022592"/>
+        <c:axId val="427735296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,14 +1305,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105607552"/>
+        <c:crossAx val="427835392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105607552"/>
+        <c:axId val="427835392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1363,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105022592"/>
+        <c:crossAx val="427735296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1471,7 +1489,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1506,7 +1523,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1617,6 +1634,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>65837.569325154225</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65105.935557332014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1631,8 +1651,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="493800832"/>
-        <c:axId val="493799296"/>
+        <c:axId val="428120704"/>
+        <c:axId val="428119168"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1657,7 +1677,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1768,6 +1788,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1777,7 +1800,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1888,6 +1911,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1904,11 +1930,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462902400"/>
-        <c:axId val="462904320"/>
+        <c:axId val="428087168"/>
+        <c:axId val="428088704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462902400"/>
+        <c:axId val="428087168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1951,14 +1977,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462904320"/>
+        <c:crossAx val="428088704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462904320"/>
+        <c:axId val="428088704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2009,12 +2035,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462902400"/>
+        <c:crossAx val="428087168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493799296"/>
+        <c:axId val="428119168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2051,12 +2077,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493800832"/>
+        <c:crossAx val="428120704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="493800832"/>
+        <c:axId val="428120704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,7 +2091,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493799296"/>
+        <c:crossAx val="428119168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2474,10 +2500,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4182,10 +4208,10 @@
         <v>1096327.4405141789</v>
       </c>
       <c r="J37" s="14">
-        <v>991710.17082885141</v>
+        <v>991711.17082885141</v>
       </c>
       <c r="K37" s="14">
-        <v>-104617.26968532754</v>
+        <v>-104616.26968532754</v>
       </c>
       <c r="L37" s="13">
         <v>0</v>
@@ -4223,10 +4249,10 @@
         <v>1159999.2125700833</v>
       </c>
       <c r="J38" s="14">
-        <v>1034472.3924308628</v>
+        <v>1034473.3924308628</v>
       </c>
       <c r="K38" s="14">
-        <v>-125526.82013922057</v>
+        <v>-125525.82013922057</v>
       </c>
       <c r="L38" s="13">
         <v>0</v>
@@ -4264,16 +4290,57 @@
         <v>1225836.7818952375</v>
       </c>
       <c r="J39" s="14">
-        <v>1078029.0193784379</v>
+        <v>1078030.0193784379</v>
       </c>
       <c r="K39" s="14">
-        <v>-147807.76251679962</v>
+        <v>-147806.76251679962</v>
       </c>
       <c r="L39" s="13">
         <v>0</v>
       </c>
       <c r="M39" s="8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="12.75">
+      <c r="A40" s="11">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="12">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="12">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="13">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="13">
+        <v>65105.935557332014</v>
+      </c>
+      <c r="F40" s="14">
+        <v>102852.97612927631</v>
+      </c>
+      <c r="G40" s="14">
+        <v>1797867.2172707687</v>
+      </c>
+      <c r="H40" s="14">
+        <v>1138049.9776802531</v>
+      </c>
+      <c r="I40" s="14">
+        <v>1290942.7174525696</v>
+      </c>
+      <c r="J40" s="14">
+        <v>1138049.9776802531</v>
+      </c>
+      <c r="K40" s="14">
+        <v>-152892.73977231653</v>
+      </c>
+      <c r="L40" s="13">
+        <v>0</v>
+      </c>
+      <c r="M40" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -556,6 +556,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -565,7 +568,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -678,7 +681,10 @@
                   <c:v>1225836.7818952375</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1290942.7174525696</c:v>
+                  <c:v>1258389.7496739035</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1278770.6273266042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -721,7 +727,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -835,6 +841,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,7 +853,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -948,16 +957,19 @@
                   <c:v>899617.42754541116</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>991711.17082885141</c:v>
+                  <c:v>991710.17082885141</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1034473.3924308628</c:v>
+                  <c:v>1034472.3924308628</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1078030.0193784379</c:v>
+                  <c:v>1078029.0193784379</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1138049.9776802531</c:v>
+                  <c:v>1105497.0099015872</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1085709.7474514754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,7 +1012,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1114,6 +1126,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1123,7 +1138,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1227,16 +1242,19 @@
                   <c:v>-129683.93437074078</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-104616.26968532754</c:v>
+                  <c:v>-104617.26968532754</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-125525.82013922057</c:v>
+                  <c:v>-125526.82013922057</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-147806.76251679962</c:v>
+                  <c:v>-147807.76251679962</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-152892.73977231653</c:v>
+                  <c:v>-152892.7397723163</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-193060.87987512886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,11 +1276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="427735296"/>
-        <c:axId val="427835392"/>
+        <c:axId val="342445056"/>
+        <c:axId val="445156352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="427735296"/>
+        <c:axId val="342445056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,14 +1323,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427835392"/>
+        <c:crossAx val="445156352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="427835392"/>
+        <c:axId val="445156352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,7 +1381,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427735296"/>
+        <c:crossAx val="342445056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1489,6 +1507,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1523,7 +1542,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1636,7 +1655,10 @@
                   <c:v>65837.569325154225</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>65105.935557332014</c:v>
+                  <c:v>32552.967778666007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20380.877652700809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1651,8 +1673,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="428120704"/>
-        <c:axId val="428119168"/>
+        <c:axId val="500841088"/>
+        <c:axId val="497786240"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1677,7 +1699,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1791,6 +1813,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1800,7 +1825,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1914,6 +1939,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1930,11 +1958,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="428087168"/>
-        <c:axId val="428088704"/>
+        <c:axId val="497782784"/>
+        <c:axId val="497784704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="428087168"/>
+        <c:axId val="497782784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1977,14 +2005,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428088704"/>
+        <c:crossAx val="497784704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="428088704"/>
+        <c:axId val="497784704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2035,12 +2063,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428087168"/>
+        <c:crossAx val="497782784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="428119168"/>
+        <c:axId val="497786240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,12 +2105,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428120704"/>
+        <c:crossAx val="500841088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="428120704"/>
+        <c:axId val="500841088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,7 +2119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="428119168"/>
+        <c:crossAx val="497786240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2500,10 +2528,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4208,10 +4236,10 @@
         <v>1096327.4405141789</v>
       </c>
       <c r="J37" s="14">
-        <v>991711.17082885141</v>
+        <v>991710.17082885141</v>
       </c>
       <c r="K37" s="14">
-        <v>-104616.26968532754</v>
+        <v>-104617.26968532754</v>
       </c>
       <c r="L37" s="13">
         <v>0</v>
@@ -4249,10 +4277,10 @@
         <v>1159999.2125700833</v>
       </c>
       <c r="J38" s="14">
-        <v>1034473.3924308628</v>
+        <v>1034472.3924308628</v>
       </c>
       <c r="K38" s="14">
-        <v>-125525.82013922057</v>
+        <v>-125526.82013922057</v>
       </c>
       <c r="L38" s="13">
         <v>0</v>
@@ -4290,10 +4318,10 @@
         <v>1225836.7818952375</v>
       </c>
       <c r="J39" s="14">
-        <v>1078030.0193784379</v>
+        <v>1078029.0193784379</v>
       </c>
       <c r="K39" s="14">
-        <v>-147806.76251679962</v>
+        <v>-147807.76251679962</v>
       </c>
       <c r="L39" s="13">
         <v>0</v>
@@ -4316,30 +4344,71 @@
         <v>25.951256745485065</v>
       </c>
       <c r="E40" s="13">
-        <v>65105.935557332014</v>
+        <v>32552.967778666007</v>
       </c>
       <c r="F40" s="14">
-        <v>102852.97612927631</v>
+        <v>51426.488064638157</v>
       </c>
       <c r="G40" s="14">
-        <v>1797867.2172707687</v>
+        <v>1746440.7292061306</v>
       </c>
       <c r="H40" s="14">
-        <v>1138049.9776802531</v>
+        <v>1105497.0099015872</v>
       </c>
       <c r="I40" s="14">
-        <v>1290942.7174525696</v>
+        <v>1258389.7496739035</v>
       </c>
       <c r="J40" s="14">
-        <v>1138049.9776802531</v>
+        <v>1105497.0099015872</v>
       </c>
       <c r="K40" s="14">
-        <v>-152892.73977231653</v>
+        <v>-152892.7397723163</v>
       </c>
       <c r="L40" s="13">
         <v>0</v>
       </c>
       <c r="M40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="12.75">
+      <c r="A41" s="11">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="12">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="12">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="13">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="13">
+        <v>20380.877652700809</v>
+      </c>
+      <c r="F41" s="14">
+        <v>33411.274056965078</v>
+      </c>
+      <c r="G41" s="14">
+        <v>1779852.0032630956</v>
+      </c>
+      <c r="H41" s="14">
+        <v>1085709.7474514754</v>
+      </c>
+      <c r="I41" s="14">
+        <v>1278770.6273266042</v>
+      </c>
+      <c r="J41" s="14">
+        <v>1085709.7474514754</v>
+      </c>
+      <c r="K41" s="14">
+        <v>-193060.87987512886</v>
+      </c>
+      <c r="L41" s="13">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -559,6 +559,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -568,7 +571,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -685,6 +688,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1278770.6273266042</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1280223.7633247457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -727,7 +733,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -844,6 +850,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,7 +862,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -970,6 +979,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1085709.7474514754</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1366599.6572976182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1012,7 +1024,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1129,6 +1141,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1138,7 +1153,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1255,6 +1270,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-193060.87987512886</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>86375.893972872524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1276,11 +1294,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="342445056"/>
-        <c:axId val="445156352"/>
+        <c:axId val="370582656"/>
+        <c:axId val="370584192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="342445056"/>
+        <c:axId val="370582656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1323,14 +1341,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445156352"/>
+        <c:crossAx val="370584192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="445156352"/>
+        <c:axId val="370584192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,7 +1399,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342445056"/>
+        <c:crossAx val="370582656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1542,7 +1560,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1659,6 +1677,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>20380.877652700809</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1453.1359981414703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1673,8 +1694,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="500841088"/>
-        <c:axId val="497786240"/>
+        <c:axId val="442435840"/>
+        <c:axId val="442434304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1699,7 +1720,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1816,6 +1837,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1825,7 +1849,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1942,6 +1966,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1958,11 +1985,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497782784"/>
-        <c:axId val="497784704"/>
+        <c:axId val="442287232"/>
+        <c:axId val="442288768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="497782784"/>
+        <c:axId val="442287232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,14 +2032,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497784704"/>
+        <c:crossAx val="442288768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="497784704"/>
+        <c:axId val="442288768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2063,12 +2090,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497782784"/>
+        <c:crossAx val="442287232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="497786240"/>
+        <c:axId val="442434304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,12 +2132,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500841088"/>
+        <c:crossAx val="442435840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="500841088"/>
+        <c:axId val="442435840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,7 +2146,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="497786240"/>
+        <c:crossAx val="442434304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2528,7 +2555,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4412,6 +4439,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:13" ht="12.75">
+      <c r="A42" s="11">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="12">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="12">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="13">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="13">
+        <v>1453.1359981414703</v>
+      </c>
+      <c r="F42" s="14">
+        <v>1894.5710053481021</v>
+      </c>
+      <c r="G42" s="14">
+        <v>1781746.5742684437</v>
+      </c>
+      <c r="H42" s="14">
+        <v>1366599.6572976182</v>
+      </c>
+      <c r="I42" s="14">
+        <v>1280223.7633247457</v>
+      </c>
+      <c r="J42" s="14">
+        <v>1366599.6572976182</v>
+      </c>
+      <c r="K42" s="14">
+        <v>86375.893972872524</v>
+      </c>
+      <c r="L42" s="13">
+        <v>0</v>
+      </c>
+      <c r="M42" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -565,6 +565,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -574,7 +577,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -697,6 +700,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1286897.4102956851</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1293796.6380142104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,7 +745,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -862,6 +868,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -871,7 +880,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -994,6 +1003,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1391109.698711168</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1405170.3807408777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1036,7 +1048,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1159,6 +1171,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1168,7 +1183,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1291,6 +1306,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>104212.28841548297</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>111373.74272666732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1312,11 +1330,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87315584"/>
-        <c:axId val="87317504"/>
+        <c:axId val="472281856"/>
+        <c:axId val="472283776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87315584"/>
+        <c:axId val="472281856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,14 +1377,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87317504"/>
+        <c:crossAx val="472283776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87317504"/>
+        <c:axId val="472283776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,7 +1435,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87315584"/>
+        <c:crossAx val="472281856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1578,7 +1596,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1701,6 +1719,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>5220.5109727978688</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6899.2277185253106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1715,8 +1736,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="449852544"/>
-        <c:axId val="443341440"/>
+        <c:axId val="480040448"/>
+        <c:axId val="479989120"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1741,7 +1762,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1864,6 +1885,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1873,7 +1897,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1996,6 +2020,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2012,11 +2039,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="354445952"/>
-        <c:axId val="443339904"/>
+        <c:axId val="479985664"/>
+        <c:axId val="479987200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="354445952"/>
+        <c:axId val="479985664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,14 +2086,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443339904"/>
+        <c:crossAx val="479987200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="443339904"/>
+        <c:axId val="479987200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2117,12 +2144,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354445952"/>
+        <c:crossAx val="479985664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="443341440"/>
+        <c:axId val="479989120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,12 +2186,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449852544"/>
+        <c:crossAx val="480040448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="449852544"/>
+        <c:axId val="480040448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2173,7 +2200,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443341440"/>
+        <c:crossAx val="479989120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2582,7 +2609,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4548,6 +4575,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="1:13" ht="12.75">
+      <c r="A44" s="11">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="12">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="12">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="13">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="13">
+        <v>6899.2277185253106</v>
+      </c>
+      <c r="F44" s="14">
+        <v>8833.8381030189812</v>
+      </c>
+      <c r="G44" s="14">
+        <v>1799193.7876310174</v>
+      </c>
+      <c r="H44" s="14">
+        <v>1405170.3807408777</v>
+      </c>
+      <c r="I44" s="14">
+        <v>1293796.6380142104</v>
+      </c>
+      <c r="J44" s="14">
+        <v>1405170.3807408777</v>
+      </c>
+      <c r="K44" s="14">
+        <v>111373.74272666732</v>
+      </c>
+      <c r="L44" s="13">
+        <v>0</v>
+      </c>
+      <c r="M44" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -259,7 +259,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,6 +318,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,7 +443,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -568,6 +569,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -577,7 +581,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -693,16 +697,19 @@
                   <c:v>1258389.7496739035</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1278770.6273266042</c:v>
+                  <c:v>1278770.6273277001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1281676.8993228872</c:v>
+                  <c:v>1281676.8993261259</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1286897.4102956851</c:v>
+                  <c:v>1286897.4102989237</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1293796.6380142104</c:v>
+                  <c:v>1293796.6380174491</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1299953.5528675481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -745,7 +752,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -871,6 +878,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -880,7 +890,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -996,16 +1006,19 @@
                   <c:v>1105497.0099015872</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1085709.7474514754</c:v>
+                  <c:v>1085709.7474525713</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1368052.7932957597</c:v>
+                  <c:v>1368052.7932992803</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1391109.698711168</c:v>
+                  <c:v>1391109.6987147345</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1405170.3807408777</c:v>
+                  <c:v>1405170.3807444626</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1425720.7678247031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,7 +1061,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1174,6 +1187,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1183,7 +1199,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1302,13 +1318,16 @@
                   <c:v>-193060.87987512886</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>86375.893972872524</c:v>
+                  <c:v>86375.893973154482</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>104212.28841548297</c:v>
+                  <c:v>104212.28841581079</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>111373.74272666732</c:v>
+                  <c:v>111373.74272701354</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>125767.21495715505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1330,11 +1349,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472281856"/>
-        <c:axId val="472283776"/>
+        <c:axId val="426409344"/>
+        <c:axId val="435381760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472281856"/>
+        <c:axId val="426409344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,14 +1396,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472283776"/>
+        <c:crossAx val="435381760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472283776"/>
+        <c:axId val="435381760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,7 +1454,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472281856"/>
+        <c:crossAx val="426409344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1596,7 +1615,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1712,16 +1731,19 @@
                   <c:v>32552.967778666007</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20380.877652700809</c:v>
+                  <c:v>20380.877653796702</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2906.2719962829406</c:v>
+                  <c:v>2906.2719984256446</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>5220.5109727978688</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>6899.2277185253106</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6156.9148500989468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1736,8 +1758,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="480040448"/>
-        <c:axId val="479989120"/>
+        <c:axId val="118345088"/>
+        <c:axId val="118343552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1762,7 +1784,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1888,6 +1910,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1897,7 +1922,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2023,6 +2048,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2039,11 +2067,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479985664"/>
-        <c:axId val="479987200"/>
+        <c:axId val="513731200"/>
+        <c:axId val="118342016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479985664"/>
+        <c:axId val="513731200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,14 +2114,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479987200"/>
+        <c:crossAx val="118342016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479987200"/>
+        <c:axId val="118342016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2144,12 +2172,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479985664"/>
+        <c:crossAx val="513731200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="479989120"/>
+        <c:axId val="118343552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2186,12 +2214,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480040448"/>
+        <c:crossAx val="118345088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="480040448"/>
+        <c:axId val="118345088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,7 +2228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479989120"/>
+        <c:crossAx val="118343552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2609,7 +2637,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2792,6 +2820,16 @@
         <f>-AC3</f>
         <v>-128778.87492621085</v>
       </c>
+      <c r="AE3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>128778.87492621085</v>
+      </c>
+      <c r="AG3" s="10">
+        <f>-AF3</f>
+        <v>-128778.87492621085</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="11">
@@ -2875,9 +2913,16 @@
         <f>-AC4</f>
         <v>-401953.44479283423</v>
       </c>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
+      <c r="AE4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>401953.44479283423</v>
+      </c>
+      <c r="AG4" s="8">
+        <f>-AF4</f>
+        <v>-401953.44479283423</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="11">
@@ -2958,9 +3003,16 @@
         <f>-AC5</f>
         <v>-377214.1657703988</v>
       </c>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
+      <c r="AE5" s="21">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="AG5" s="8">
+        <f>-AF5</f>
+        <v>-377214.1657703988</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="11">
@@ -3038,7 +3090,16 @@
       <c r="AD6" s="19">
         <v>769436.91091454169</v>
       </c>
-      <c r="AE6" s="16"/>
+      <c r="AE6" s="21">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>392007.0673781042</v>
+      </c>
+      <c r="AG6" s="10">
+        <f>-AF6</f>
+        <v>-392007.0673781042</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="11">
@@ -3079,6 +3140,30 @@
       </c>
       <c r="M7" s="8">
         <v>1</v>
+      </c>
+      <c r="P7" s="21">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>392007.0673781042</v>
+      </c>
+      <c r="R7" s="7">
+        <v>1299953.5528675481</v>
+      </c>
+      <c r="S7" s="7">
+        <v>1425720.7678247031</v>
+      </c>
+      <c r="T7" s="7">
+        <v>125767.21495715505</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="18">
+        <v>9.6747468153555977E-2</v>
+      </c>
+      <c r="W7" s="18">
+        <v>4.2362106918812037E-2</v>
       </c>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
@@ -3086,7 +3171,12 @@
       <c r="AD7" s="9">
         <v>-9.2614134360843758E-2</v>
       </c>
-      <c r="AG7" s="9"/>
+      <c r="AE7" s="21">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>1425720.7678247031</v>
+      </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="11">
@@ -3127,6 +3217,9 @@
       </c>
       <c r="M8" s="8">
         <v>1</v>
+      </c>
+      <c r="AG8" s="9">
+        <v>4.2362106918812037E-2</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1">
@@ -4463,25 +4556,25 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="13">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="13">
-        <v>20380.877652700809</v>
+        <v>20380.877653796702</v>
       </c>
       <c r="F41" s="14">
-        <v>33411.274056965078</v>
+        <v>33411.274058761628</v>
       </c>
       <c r="G41" s="14">
-        <v>1779852.0032630956</v>
+        <v>1779852.0032648921</v>
       </c>
       <c r="H41" s="14">
-        <v>1085709.7474514754</v>
+        <v>1085709.7474525713</v>
       </c>
       <c r="I41" s="14">
-        <v>1278770.6273266042</v>
+        <v>1278770.6273277001</v>
       </c>
       <c r="J41" s="14">
-        <v>1085709.7474514754</v>
+        <v>1085709.7474525713</v>
       </c>
       <c r="K41" s="14">
         <v>-193060.87987512886</v>
@@ -4504,28 +4597,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="13">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="13">
-        <v>2906.2719962829406</v>
+        <v>2906.2719984256446</v>
       </c>
       <c r="F42" s="14">
-        <v>3789.1420106962041</v>
+        <v>3789.1420134898208</v>
       </c>
       <c r="G42" s="14">
-        <v>1783641.1452737919</v>
+        <v>1783641.1452783819</v>
       </c>
       <c r="H42" s="14">
-        <v>1368052.7932957597</v>
+        <v>1368052.7932992803</v>
       </c>
       <c r="I42" s="14">
-        <v>1281676.8993228872</v>
+        <v>1281676.8993261259</v>
       </c>
       <c r="J42" s="14">
-        <v>1368052.7932957597</v>
+        <v>1368052.7932992803</v>
       </c>
       <c r="K42" s="14">
-        <v>86375.893972872524</v>
+        <v>86375.893973154482</v>
       </c>
       <c r="L42" s="13">
         <v>0</v>
@@ -4554,19 +4647,19 @@
         <v>6718.8042542066705</v>
       </c>
       <c r="G43" s="14">
-        <v>1790359.9495279985</v>
+        <v>1790359.9495325885</v>
       </c>
       <c r="H43" s="14">
-        <v>1391109.698711168</v>
+        <v>1391109.6987147345</v>
       </c>
       <c r="I43" s="14">
-        <v>1286897.4102956851</v>
+        <v>1286897.4102989237</v>
       </c>
       <c r="J43" s="14">
-        <v>1391109.698711168</v>
+        <v>1391109.6987147345</v>
       </c>
       <c r="K43" s="14">
-        <v>104212.28841548297</v>
+        <v>104212.28841581079</v>
       </c>
       <c r="L43" s="13">
         <v>0</v>
@@ -4595,19 +4688,19 @@
         <v>8833.8381030189812</v>
       </c>
       <c r="G44" s="14">
-        <v>1799193.7876310174</v>
+        <v>1799193.7876356074</v>
       </c>
       <c r="H44" s="14">
-        <v>1405170.3807408777</v>
+        <v>1405170.3807444626</v>
       </c>
       <c r="I44" s="14">
-        <v>1293796.6380142104</v>
+        <v>1293796.6380174491</v>
       </c>
       <c r="J44" s="14">
-        <v>1405170.3807408777</v>
+        <v>1405170.3807444626</v>
       </c>
       <c r="K44" s="14">
-        <v>111373.74272666732</v>
+        <v>111373.74272701354</v>
       </c>
       <c r="L44" s="13">
         <v>0</v>
@@ -4615,6 +4708,50 @@
       <c r="M44" s="8">
         <v>1</v>
       </c>
+    </row>
+    <row r="45" spans="1:13" ht="12.75">
+      <c r="A45" s="11">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="12">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="12">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="13">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="13">
+        <v>6156.9148500989468</v>
+      </c>
+      <c r="F45" s="14">
+        <v>7803.4411246012587</v>
+      </c>
+      <c r="G45" s="14">
+        <v>1806997.2287602087</v>
+      </c>
+      <c r="H45" s="14">
+        <v>1425720.7678247031</v>
+      </c>
+      <c r="I45" s="14">
+        <v>1299953.5528675481</v>
+      </c>
+      <c r="J45" s="14">
+        <v>1425720.7678247031</v>
+      </c>
+      <c r="K45" s="14">
+        <v>125767.21495715505</v>
+      </c>
+      <c r="L45" s="13">
+        <v>0</v>
+      </c>
+      <c r="M45" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -259,7 +259,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,7 +318,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1349,11 +1348,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426409344"/>
-        <c:axId val="435381760"/>
+        <c:axId val="403770752"/>
+        <c:axId val="424906112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="426409344"/>
+        <c:axId val="403770752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,14 +1395,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435381760"/>
+        <c:crossAx val="424906112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435381760"/>
+        <c:axId val="424906112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,7 +1453,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426409344"/>
+        <c:crossAx val="403770752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1758,8 +1757,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118345088"/>
-        <c:axId val="118343552"/>
+        <c:axId val="453159552"/>
+        <c:axId val="453158016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2067,11 +2066,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="513731200"/>
-        <c:axId val="118342016"/>
+        <c:axId val="446326272"/>
+        <c:axId val="446327808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513731200"/>
+        <c:axId val="446326272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2114,14 +2113,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118342016"/>
+        <c:crossAx val="446327808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="118342016"/>
+        <c:axId val="446327808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,12 +2171,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513731200"/>
+        <c:crossAx val="446326272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118343552"/>
+        <c:axId val="453158016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,12 +2213,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118345088"/>
+        <c:crossAx val="453159552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="118345088"/>
+        <c:axId val="453159552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2228,7 +2227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118343552"/>
+        <c:crossAx val="453158016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2637,7 +2636,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4750,9 +4749,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="28"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -571,6 +571,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -580,7 +583,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -709,6 +712,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1299953.5528675481</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1308961.8907399988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -751,7 +757,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -880,6 +886,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,7 +898,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1018,6 +1027,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1425720.7678247031</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1420273.2062766238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1060,7 +1072,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1189,6 +1201,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1198,7 +1213,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1327,6 +1342,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>125767.21495715505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>111311.31553662498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1348,11 +1366,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="403770752"/>
-        <c:axId val="424906112"/>
+        <c:axId val="106175872"/>
+        <c:axId val="106195584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="403770752"/>
+        <c:axId val="106175872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,14 +1413,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424906112"/>
+        <c:crossAx val="106195584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="424906112"/>
+        <c:axId val="106195584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1453,7 +1471,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403770752"/>
+        <c:crossAx val="106175872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1614,7 +1632,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1743,6 +1761,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>6156.9148500989468</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9008.3378724507638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1757,8 +1778,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="453159552"/>
-        <c:axId val="453158016"/>
+        <c:axId val="467241984"/>
+        <c:axId val="467239680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1783,7 +1804,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1912,6 +1933,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1921,7 +1945,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2050,6 +2074,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2066,11 +2093,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446326272"/>
-        <c:axId val="446327808"/>
+        <c:axId val="428930176"/>
+        <c:axId val="428931712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="446326272"/>
+        <c:axId val="428930176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2113,14 +2140,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446327808"/>
+        <c:crossAx val="428931712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446327808"/>
+        <c:axId val="428931712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2171,12 +2198,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446326272"/>
+        <c:crossAx val="428930176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453158016"/>
+        <c:axId val="467239680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2213,12 +2240,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453159552"/>
+        <c:crossAx val="467241984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="453159552"/>
+        <c:axId val="467241984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,7 +2254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="453158016"/>
+        <c:crossAx val="467239680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2636,7 +2663,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4749,6 +4776,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="46" spans="1:13" ht="12.75">
+      <c r="A46" s="11">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="12">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="12">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="13">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="13">
+        <v>9008.3378724507638</v>
+      </c>
+      <c r="F46" s="14">
+        <v>11534.363205442089</v>
+      </c>
+      <c r="G46" s="14">
+        <v>1818531.5919656507</v>
+      </c>
+      <c r="H46" s="14">
+        <v>1420273.2062766238</v>
+      </c>
+      <c r="I46" s="14">
+        <v>1308961.8907399988</v>
+      </c>
+      <c r="J46" s="14">
+        <v>1420273.2062766238</v>
+      </c>
+      <c r="K46" s="14">
+        <v>111311.31553662498</v>
+      </c>
+      <c r="L46" s="13">
+        <v>0</v>
+      </c>
+      <c r="M46" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -574,6 +574,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -583,7 +586,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -714,6 +717,9 @@
                   <c:v>1299953.5528675481</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>1308961.8907399988</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>1308961.8907399988</c:v>
                 </c:pt>
               </c:numCache>
@@ -757,7 +763,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -889,6 +895,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,7 +907,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1030,6 +1039,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1420273.2062766238</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1503925.6664441912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1072,7 +1084,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1204,6 +1216,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,7 +1228,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1345,6 +1360,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>111311.31553662498</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>194963.77570419246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,11 +1384,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106175872"/>
-        <c:axId val="106195584"/>
+        <c:axId val="383601280"/>
+        <c:axId val="409111168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="106175872"/>
+        <c:axId val="383601280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,14 +1431,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106195584"/>
+        <c:crossAx val="409111168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="106195584"/>
+        <c:axId val="409111168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,7 +1489,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106175872"/>
+        <c:crossAx val="383601280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1632,7 +1650,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1764,6 +1782,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>9008.3378724507638</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-4081.8818627675973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1778,8 +1799,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="467241984"/>
-        <c:axId val="467239680"/>
+        <c:axId val="465491072"/>
+        <c:axId val="452360832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1804,7 +1825,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1936,6 +1957,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1945,7 +1969,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2077,6 +2101,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2093,11 +2120,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="428930176"/>
-        <c:axId val="428931712"/>
+        <c:axId val="442543104"/>
+        <c:axId val="452359296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="428930176"/>
+        <c:axId val="442543104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2140,14 +2167,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428931712"/>
+        <c:crossAx val="452359296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="428931712"/>
+        <c:axId val="452359296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2198,12 +2225,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428930176"/>
+        <c:crossAx val="442543104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="467239680"/>
+        <c:axId val="452360832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,12 +2267,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467241984"/>
+        <c:crossAx val="465491072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="467241984"/>
+        <c:axId val="465491072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2254,7 +2281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="467239680"/>
+        <c:crossAx val="452360832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2663,7 +2690,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4817,6 +4844,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="47" spans="1:13" ht="12.75">
+      <c r="A47" s="11">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="12">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="12">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="13">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="13">
+        <v>-4081.8818627675973</v>
+      </c>
+      <c r="F47" s="14">
+        <v>-4935.7699570784825</v>
+      </c>
+      <c r="G47" s="14">
+        <v>1813595.8220085723</v>
+      </c>
+      <c r="H47" s="14">
+        <v>1499843.7845814237</v>
+      </c>
+      <c r="I47" s="14">
+        <v>1308961.8907399988</v>
+      </c>
+      <c r="J47" s="14">
+        <v>1503925.6664441912</v>
+      </c>
+      <c r="K47" s="14">
+        <v>194963.77570419246</v>
+      </c>
+      <c r="L47" s="13">
+        <v>4081.8818627675973</v>
+      </c>
+      <c r="M47" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -577,6 +577,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -586,7 +589,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -720,6 +723,9 @@
                   <c:v>1308961.8907399988</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>1308961.8907399988</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>1308961.8907399988</c:v>
                 </c:pt>
               </c:numCache>
@@ -763,7 +769,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -898,6 +904,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -907,7 +916,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1042,6 +1051,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1503925.6664441912</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1480348.9000031229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,7 +1096,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1219,6 +1231,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1228,7 +1243,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1363,6 +1378,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>194963.77570419246</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>171387.00926312408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1384,11 +1402,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="383601280"/>
-        <c:axId val="409111168"/>
+        <c:axId val="115381376"/>
+        <c:axId val="160766208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="383601280"/>
+        <c:axId val="115381376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,14 +1449,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409111168"/>
+        <c:crossAx val="160766208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="409111168"/>
+        <c:axId val="160766208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,7 +1507,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383601280"/>
+        <c:crossAx val="115381376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1650,7 +1668,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1785,6 +1803,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-4081.8818627675973</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-417.85769766438426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1799,8 +1820,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="465491072"/>
-        <c:axId val="452360832"/>
+        <c:axId val="475604096"/>
+        <c:axId val="469849600"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1825,7 +1846,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1960,6 +1981,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1969,7 +1993,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2104,6 +2128,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2120,11 +2147,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442543104"/>
-        <c:axId val="452359296"/>
+        <c:axId val="451944448"/>
+        <c:axId val="451946368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442543104"/>
+        <c:axId val="451944448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2167,14 +2194,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452359296"/>
+        <c:crossAx val="451946368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452359296"/>
+        <c:axId val="451946368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,12 +2252,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442543104"/>
+        <c:crossAx val="451944448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="452360832"/>
+        <c:axId val="469849600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2267,12 +2294,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465491072"/>
+        <c:crossAx val="475604096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="465491072"/>
+        <c:axId val="475604096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2281,7 +2308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="452360832"/>
+        <c:crossAx val="469849600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2690,7 +2717,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4885,6 +4912,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="48" spans="1:13" ht="12.75">
+      <c r="A48" s="11">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="12">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="12">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="13">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="13">
+        <v>-417.85769766438426</v>
+      </c>
+      <c r="F48" s="14">
+        <v>-513.33868830374342</v>
+      </c>
+      <c r="G48" s="14">
+        <v>1813082.4833202686</v>
+      </c>
+      <c r="H48" s="14">
+        <v>1475849.1604426908</v>
+      </c>
+      <c r="I48" s="14">
+        <v>1308961.8907399988</v>
+      </c>
+      <c r="J48" s="14">
+        <v>1480348.9000031229</v>
+      </c>
+      <c r="K48" s="14">
+        <v>171387.00926312408</v>
+      </c>
+      <c r="L48" s="13">
+        <v>4499.7395604319818</v>
+      </c>
+      <c r="M48" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -580,6 +580,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,7 +592,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -727,6 +730,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1308961.8907399988</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1321044.0399043607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -769,7 +775,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -907,6 +913,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,7 +925,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1054,6 +1063,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1480348.9000031229</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1410842.3071589943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,7 +1108,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1234,6 +1246,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1243,7 +1258,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1381,6 +1396,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>171387.00926312408</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>89798.267254633596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1402,11 +1420,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115381376"/>
-        <c:axId val="160766208"/>
+        <c:axId val="91089536"/>
+        <c:axId val="103764736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="115381376"/>
+        <c:axId val="91089536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1449,14 +1467,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160766208"/>
+        <c:crossAx val="103764736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="160766208"/>
+        <c:axId val="103764736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1507,7 +1525,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115381376"/>
+        <c:crossAx val="91089536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1668,7 +1686,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1806,6 +1824,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-417.85769766438426</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12082.149164361979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1820,8 +1841,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="475604096"/>
-        <c:axId val="469849600"/>
+        <c:axId val="452990464"/>
+        <c:axId val="449371520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1846,7 +1867,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1984,6 +2005,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1993,7 +2017,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2131,6 +2155,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2147,11 +2174,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451944448"/>
-        <c:axId val="451946368"/>
+        <c:axId val="449368064"/>
+        <c:axId val="449369600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451944448"/>
+        <c:axId val="449368064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2194,14 +2221,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451946368"/>
+        <c:crossAx val="449369600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451946368"/>
+        <c:axId val="449369600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2252,12 +2279,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451944448"/>
+        <c:crossAx val="449368064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="469849600"/>
+        <c:axId val="449371520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,12 +2321,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475604096"/>
+        <c:crossAx val="452990464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="475604096"/>
+        <c:axId val="452990464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2308,7 +2335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="469849600"/>
+        <c:crossAx val="449371520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2717,7 +2744,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4953,6 +4980,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="1:13" ht="12.75">
+      <c r="A49" s="11">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="12">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="12">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="13">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E49" s="13">
+        <v>12082.149164361979</v>
+      </c>
+      <c r="F49" s="14">
+        <v>15711.507492530269</v>
+      </c>
+      <c r="G49" s="14">
+        <v>1828793.9908127987</v>
+      </c>
+      <c r="H49" s="14">
+        <v>1406342.5675985622</v>
+      </c>
+      <c r="I49" s="14">
+        <v>1321044.0399043607</v>
+      </c>
+      <c r="J49" s="14">
+        <v>1410842.3071589943</v>
+      </c>
+      <c r="K49" s="14">
+        <v>89798.267254633596</v>
+      </c>
+      <c r="L49" s="13">
+        <v>4499.7395604319818</v>
+      </c>
+      <c r="M49" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -583,6 +583,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -592,7 +595,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -733,6 +736,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1321044.0399043607</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1338473.5518786612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,7 +781,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -916,6 +922,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -925,7 +934,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1066,6 +1075,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1410842.3071589943</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1452046.1619427472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1108,7 +1120,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1249,6 +1261,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,7 +1273,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1399,6 +1414,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>89798.267254633596</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>113572.61006408604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1420,11 +1438,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91089536"/>
-        <c:axId val="103764736"/>
+        <c:axId val="536840064"/>
+        <c:axId val="536841600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91089536"/>
+        <c:axId val="536840064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,14 +1485,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103764736"/>
+        <c:crossAx val="536841600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="103764736"/>
+        <c:axId val="536841600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1525,7 +1543,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91089536"/>
+        <c:crossAx val="536840064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1686,7 +1704,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1827,6 +1845,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>12082.149164361979</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17429.511974300451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1841,8 +1862,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="452990464"/>
-        <c:axId val="449371520"/>
+        <c:axId val="598475904"/>
+        <c:axId val="545308032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1867,7 +1888,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2008,6 +2029,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2017,7 +2041,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2158,6 +2182,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.76899999380111694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78200000524520874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2174,11 +2201,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="449368064"/>
-        <c:axId val="449369600"/>
+        <c:axId val="545304576"/>
+        <c:axId val="545306112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="449368064"/>
+        <c:axId val="545304576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2221,14 +2248,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449369600"/>
+        <c:crossAx val="545306112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="449369600"/>
+        <c:axId val="545306112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2279,12 +2306,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449368064"/>
+        <c:crossAx val="545304576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="449371520"/>
+        <c:axId val="545308032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2321,12 +2348,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452990464"/>
+        <c:crossAx val="598475904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="452990464"/>
+        <c:axId val="598475904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2335,7 +2362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="449371520"/>
+        <c:crossAx val="545308032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2744,7 +2771,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5021,6 +5048,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="50" spans="1:13" ht="12.75">
+      <c r="A50" s="11">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="12">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="12">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="13">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E50" s="13">
+        <v>17429.511974300451</v>
+      </c>
+      <c r="F50" s="14">
+        <v>22288.378334262474</v>
+      </c>
+      <c r="G50" s="14">
+        <v>1851082.3691470611</v>
+      </c>
+      <c r="H50" s="14">
+        <v>1447546.4223823152</v>
+      </c>
+      <c r="I50" s="14">
+        <v>1338473.5518786612</v>
+      </c>
+      <c r="J50" s="14">
+        <v>1452046.1619427472</v>
+      </c>
+      <c r="K50" s="14">
+        <v>113572.61006408604</v>
+      </c>
+      <c r="L50" s="13">
+        <v>4499.7395604319818</v>
+      </c>
+      <c r="M50" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -586,6 +586,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,7 +598,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -739,6 +742,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1338473.5518786612</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1347713.0481643691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,7 +787,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -925,6 +931,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -934,7 +943,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1078,6 +1087,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1452046.1619427472</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1516818.0763429755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1120,7 +1132,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1264,6 +1276,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1273,7 +1288,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1417,6 +1432,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>113572.61006408604</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>169105.02817860642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1438,11 +1456,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536840064"/>
-        <c:axId val="536841600"/>
+        <c:axId val="90974848"/>
+        <c:axId val="103441152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536840064"/>
+        <c:axId val="90974848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,14 +1503,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536841600"/>
+        <c:crossAx val="103441152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536841600"/>
+        <c:axId val="103441152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1543,7 +1561,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536840064"/>
+        <c:crossAx val="90974848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1704,7 +1722,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1848,6 +1866,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>17429.511974300451</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9239.4962857078353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1862,8 +1883,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="598475904"/>
-        <c:axId val="545308032"/>
+        <c:axId val="161340800"/>
+        <c:axId val="161338880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1888,7 +1909,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2032,6 +2053,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2041,7 +2065,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2185,6 +2209,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.78200000524520874</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81199997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2201,11 +2228,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="545304576"/>
-        <c:axId val="545306112"/>
+        <c:axId val="161302400"/>
+        <c:axId val="161303936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="545304576"/>
+        <c:axId val="161302400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2248,14 +2275,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545306112"/>
+        <c:crossAx val="161303936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="545306112"/>
+        <c:axId val="161303936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,12 +2333,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545304576"/>
+        <c:crossAx val="161302400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="545308032"/>
+        <c:axId val="161338880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2348,12 +2375,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598475904"/>
+        <c:crossAx val="161340800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="598475904"/>
+        <c:axId val="161340800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2362,7 +2389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="545308032"/>
+        <c:crossAx val="161338880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2771,7 +2798,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5089,6 +5116,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="51" spans="1:13" ht="12.75">
+      <c r="A51" s="11">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="12">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="12">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="13">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E51" s="13">
+        <v>9239.4962857078353</v>
+      </c>
+      <c r="F51" s="14">
+        <v>11378.690334447256</v>
+      </c>
+      <c r="G51" s="14">
+        <v>1862461.0594815083</v>
+      </c>
+      <c r="H51" s="14">
+        <v>1512318.3367825435</v>
+      </c>
+      <c r="I51" s="14">
+        <v>1347713.0481643691</v>
+      </c>
+      <c r="J51" s="14">
+        <v>1516818.0763429755</v>
+      </c>
+      <c r="K51" s="14">
+        <v>169105.02817860642</v>
+      </c>
+      <c r="L51" s="13">
+        <v>4499.7395604319818</v>
+      </c>
+      <c r="M51" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -589,6 +589,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -598,7 +601,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -745,6 +748,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1347713.0481643691</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1349368.163556112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,7 +793,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -934,6 +940,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -943,7 +952,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1090,6 +1099,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1516818.0763429755</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1579934.5034994876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1132,7 +1144,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1279,6 +1291,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,7 +1303,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1435,6 +1450,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>169105.02817860642</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>230566.33994337567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1456,11 +1474,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90974848"/>
-        <c:axId val="103441152"/>
+        <c:axId val="420641792"/>
+        <c:axId val="436921088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90974848"/>
+        <c:axId val="420641792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,14 +1521,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103441152"/>
+        <c:crossAx val="436921088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="103441152"/>
+        <c:axId val="436921088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,7 +1579,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90974848"/>
+        <c:crossAx val="420641792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1722,7 +1740,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1869,6 +1887,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>9239.4962857078353</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1655.1153917428071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1883,8 +1904,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="161340800"/>
-        <c:axId val="161338880"/>
+        <c:axId val="455339392"/>
+        <c:axId val="455337472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1909,7 +1930,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2056,6 +2077,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,7 +2089,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2212,6 +2236,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.81199997663497925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84500002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2228,11 +2255,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161302400"/>
-        <c:axId val="161303936"/>
+        <c:axId val="454957312"/>
+        <c:axId val="455335936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="161302400"/>
+        <c:axId val="454957312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,14 +2302,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161303936"/>
+        <c:crossAx val="455335936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161303936"/>
+        <c:axId val="455335936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2333,12 +2360,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161302400"/>
+        <c:crossAx val="454957312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161338880"/>
+        <c:axId val="455337472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,12 +2402,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161340800"/>
+        <c:crossAx val="455339392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="161340800"/>
+        <c:axId val="455339392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,7 +2416,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161338880"/>
+        <c:crossAx val="455337472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2798,7 +2825,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5157,6 +5184,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="52" spans="1:13" ht="12.75">
+      <c r="A52" s="11">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="12">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="12">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="13">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E52" s="13">
+        <v>1655.1153917428071</v>
+      </c>
+      <c r="F52" s="14">
+        <v>1958.7163736135883</v>
+      </c>
+      <c r="G52" s="14">
+        <v>1864419.7758551219</v>
+      </c>
+      <c r="H52" s="14">
+        <v>1575434.7639390556</v>
+      </c>
+      <c r="I52" s="14">
+        <v>1349368.163556112</v>
+      </c>
+      <c r="J52" s="14">
+        <v>1579934.5034994876</v>
+      </c>
+      <c r="K52" s="14">
+        <v>230566.33994337567</v>
+      </c>
+      <c r="L52" s="13">
+        <v>4499.7395604319818</v>
+      </c>
+      <c r="M52" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -592,6 +592,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -601,7 +604,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -750,6 +753,9 @@
                   <c:v>1347713.0481643691</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>1349368.163556112</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>1349368.163556112</c:v>
                 </c:pt>
               </c:numCache>
@@ -793,7 +799,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -943,6 +949,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,7 +961,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1102,6 +1111,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1579934.5034994876</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1885699.188493344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1144,7 +1156,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1294,6 +1306,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,7 +1318,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1453,6 +1468,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>230566.33994337567</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>536331.02493723202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1474,11 +1492,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="420641792"/>
-        <c:axId val="436921088"/>
+        <c:axId val="89349120"/>
+        <c:axId val="94622464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="420641792"/>
+        <c:axId val="89349120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,14 +1539,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436921088"/>
+        <c:crossAx val="94622464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436921088"/>
+        <c:axId val="94622464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,7 +1597,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420641792"/>
+        <c:crossAx val="89349120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1740,7 +1758,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1890,6 +1908,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1655.1153917428071</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-35767.924119107309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1904,8 +1925,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="455339392"/>
-        <c:axId val="455337472"/>
+        <c:axId val="442660736"/>
+        <c:axId val="442637696"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1930,7 +1951,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2080,6 +2101,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2089,7 +2113,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2239,6 +2263,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.84500002861022949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0089999437332153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2255,11 +2282,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454957312"/>
-        <c:axId val="455335936"/>
+        <c:axId val="442634240"/>
+        <c:axId val="442636160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="454957312"/>
+        <c:axId val="442634240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,14 +2329,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455335936"/>
+        <c:crossAx val="442636160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="455335936"/>
+        <c:axId val="442636160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2360,12 +2387,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454957312"/>
+        <c:crossAx val="442634240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="455337472"/>
+        <c:axId val="442637696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2402,12 +2429,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455339392"/>
+        <c:crossAx val="442660736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="455339392"/>
+        <c:axId val="442660736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2416,7 +2443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455337472"/>
+        <c:crossAx val="442637696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2825,7 +2852,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5225,6 +5252,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="53" spans="1:13" ht="12.75">
+      <c r="A53" s="11">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="12">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="12">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="13">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E53" s="13">
+        <v>-35767.924119107309</v>
+      </c>
+      <c r="F53" s="14">
+        <v>-35448.886138456044</v>
+      </c>
+      <c r="G53" s="14">
+        <v>1828970.889716666</v>
+      </c>
+      <c r="H53" s="14">
+        <v>1845431.5248138048</v>
+      </c>
+      <c r="I53" s="14">
+        <v>1349368.163556112</v>
+      </c>
+      <c r="J53" s="14">
+        <v>1885699.188493344</v>
+      </c>
+      <c r="K53" s="14">
+        <v>536331.02493723202</v>
+      </c>
+      <c r="L53" s="13">
+        <v>40267.663679539291</v>
+      </c>
+      <c r="M53" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -595,6 +595,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -604,7 +607,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -756,6 +759,9 @@
                   <c:v>1349368.163556112</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>1349368.163556112</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>1349368.163556112</c:v>
                 </c:pt>
               </c:numCache>
@@ -799,7 +805,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -952,6 +958,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -961,7 +970,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1114,6 +1123,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1885699.188493344</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2030188.0998343108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,7 +1168,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1309,6 +1321,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1318,7 +1333,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1471,6 +1486,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>536331.02493723202</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>680819.93627819885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1492,11 +1510,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89349120"/>
-        <c:axId val="94622464"/>
+        <c:axId val="71194112"/>
+        <c:axId val="71196032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89349120"/>
+        <c:axId val="71194112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,14 +1557,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94622464"/>
+        <c:crossAx val="71196032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94622464"/>
+        <c:axId val="71196032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,7 +1615,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89349120"/>
+        <c:crossAx val="71194112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1758,7 +1776,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1911,6 +1929,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-35767.924119107309</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-57310.116966345995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1925,8 +1946,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="442660736"/>
-        <c:axId val="442637696"/>
+        <c:axId val="104592512"/>
+        <c:axId val="92142208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1951,7 +1972,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2104,6 +2125,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2113,7 +2137,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2266,6 +2290,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0089999437332153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0880000591278076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2282,11 +2309,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442634240"/>
-        <c:axId val="442636160"/>
+        <c:axId val="90572288"/>
+        <c:axId val="91570560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442634240"/>
+        <c:axId val="90572288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,14 +2356,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442636160"/>
+        <c:crossAx val="91570560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442636160"/>
+        <c:axId val="91570560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,12 +2414,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442634240"/>
+        <c:crossAx val="90572288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442637696"/>
+        <c:axId val="92142208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2429,12 +2456,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442660736"/>
+        <c:crossAx val="104592512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="442660736"/>
+        <c:axId val="104592512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2443,7 +2470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442637696"/>
+        <c:crossAx val="92142208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2852,7 +2879,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG53"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5293,6 +5320,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="54" spans="1:13" ht="12.75">
+      <c r="A54" s="11">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="12">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="12">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="13">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E54" s="13">
+        <v>-57310.116966345995</v>
+      </c>
+      <c r="F54" s="14">
+        <v>-52674.736996143642</v>
+      </c>
+      <c r="G54" s="14">
+        <v>1776296.1527205224</v>
+      </c>
+      <c r="H54" s="14">
+        <v>1932610.3191884256</v>
+      </c>
+      <c r="I54" s="14">
+        <v>1349368.163556112</v>
+      </c>
+      <c r="J54" s="14">
+        <v>2030188.0998343108</v>
+      </c>
+      <c r="K54" s="14">
+        <v>680819.93627819885</v>
+      </c>
+      <c r="L54" s="13">
+        <v>97577.780645885287</v>
+      </c>
+      <c r="M54" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -598,6 +598,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -607,7 +610,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -762,6 +765,9 @@
                   <c:v>1349368.163556112</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>1349368.163556112</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>1349368.163556112</c:v>
                 </c:pt>
               </c:numCache>
@@ -805,7 +811,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -961,6 +967,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,7 +979,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1126,6 +1135,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>2030188.0998343108</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2003543.4712026208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1168,7 +1180,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1324,6 +1336,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1333,7 +1348,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1489,6 +1504,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>680819.93627819885</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>654175.30764650879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1510,11 +1528,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71194112"/>
-        <c:axId val="71196032"/>
+        <c:axId val="467848192"/>
+        <c:axId val="480985856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="71194112"/>
+        <c:axId val="467848192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1557,14 +1575,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71196032"/>
+        <c:crossAx val="480985856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="71196032"/>
+        <c:axId val="480985856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,7 +1633,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71194112"/>
+        <c:crossAx val="467848192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1776,7 +1794,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1932,6 +1950,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-57310.116966345995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-51110.190825250458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1946,8 +1967,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104592512"/>
-        <c:axId val="92142208"/>
+        <c:axId val="543900800"/>
+        <c:axId val="519511424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1972,7 +1993,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2128,6 +2149,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2137,7 +2161,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2293,6 +2317,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1.0880000591278076</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0729999542236328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2309,11 +2336,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90572288"/>
-        <c:axId val="91570560"/>
+        <c:axId val="519507968"/>
+        <c:axId val="519509888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90572288"/>
+        <c:axId val="519507968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2356,14 +2383,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91570560"/>
+        <c:crossAx val="519509888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91570560"/>
+        <c:axId val="519509888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2414,12 +2441,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90572288"/>
+        <c:crossAx val="519507968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92142208"/>
+        <c:axId val="519511424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,12 +2483,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104592512"/>
+        <c:crossAx val="543900800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="104592512"/>
+        <c:axId val="543900800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,7 +2497,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92142208"/>
+        <c:crossAx val="519511424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2879,7 +2906,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG54"/>
+  <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5361,6 +5388,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="55" spans="1:13" ht="12.75">
+      <c r="A55" s="11">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="12">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="12">
+        <v>32.159999849999998</v>
+      </c>
+      <c r="D55" s="13">
+        <v>25.690355441740447</v>
+      </c>
+      <c r="E55" s="13">
+        <v>-51110.190825250458</v>
+      </c>
+      <c r="F55" s="14">
+        <v>-47632.985093863441</v>
+      </c>
+      <c r="G55" s="14">
+        <v>1728663.1676266589</v>
+      </c>
+      <c r="H55" s="14">
+        <v>1854855.499731485</v>
+      </c>
+      <c r="I55" s="14">
+        <v>1349368.163556112</v>
+      </c>
+      <c r="J55" s="14">
+        <v>2003543.4712026208</v>
+      </c>
+      <c r="K55" s="14">
+        <v>654175.30764650879</v>
+      </c>
+      <c r="L55" s="13">
+        <v>148687.97147113574</v>
+      </c>
+      <c r="M55" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -601,6 +601,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -610,7 +613,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -768,6 +771,9 @@
                   <c:v>1349368.163556112</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>1349368.163556112</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>1349368.163556112</c:v>
                 </c:pt>
               </c:numCache>
@@ -811,7 +817,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -970,6 +976,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,7 +988,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1138,6 +1147,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>2003543.4712026208</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1946497.5998595944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,7 +1192,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1339,6 +1351,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1348,7 +1363,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1507,6 +1522,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>654175.30764650879</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>597129.43630348239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1528,11 +1546,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467848192"/>
-        <c:axId val="480985856"/>
+        <c:axId val="439701888"/>
+        <c:axId val="466713216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="467848192"/>
+        <c:axId val="439701888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,14 +1593,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480985856"/>
+        <c:crossAx val="466713216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="480985856"/>
+        <c:axId val="466713216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1633,7 +1651,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467848192"/>
+        <c:crossAx val="439701888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1794,7 +1812,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1953,6 +1971,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-51110.190825250458</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-31695.699802721694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1967,8 +1988,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="543900800"/>
-        <c:axId val="519511424"/>
+        <c:axId val="474833664"/>
+        <c:axId val="474495232"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1993,7 +2014,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2152,6 +2173,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2161,7 +2185,7 @@
               <c:f>'model2(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2320,6 +2344,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1.0729999542236328</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0399999618530273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2336,11 +2363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519507968"/>
-        <c:axId val="519509888"/>
+        <c:axId val="469383808"/>
+        <c:axId val="474493312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519507968"/>
+        <c:axId val="469383808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,14 +2410,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519509888"/>
+        <c:crossAx val="474493312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519509888"/>
+        <c:axId val="474493312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,12 +2468,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519507968"/>
+        <c:crossAx val="469383808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="519511424"/>
+        <c:axId val="474495232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2483,12 +2510,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543900800"/>
+        <c:crossAx val="474833664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="543900800"/>
+        <c:axId val="474833664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,7 +2524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519511424"/>
+        <c:crossAx val="474495232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2906,7 +2933,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG55"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5429,6 +5456,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="56" spans="1:13" ht="12.75">
+      <c r="A56" s="11">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="12">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="12">
+        <v>29.780000690000001</v>
+      </c>
+      <c r="D56" s="13">
+        <v>25.767886790921306</v>
+      </c>
+      <c r="E56" s="13">
+        <v>-31695.699802721694</v>
+      </c>
+      <c r="F56" s="14">
+        <v>-30476.635543570264</v>
+      </c>
+      <c r="G56" s="14">
+        <v>1698186.5320830888</v>
+      </c>
+      <c r="H56" s="14">
+        <v>1766113.928585737</v>
+      </c>
+      <c r="I56" s="14">
+        <v>1349368.163556112</v>
+      </c>
+      <c r="J56" s="14">
+        <v>1946497.5998595944</v>
+      </c>
+      <c r="K56" s="14">
+        <v>597129.43630348239</v>
+      </c>
+      <c r="L56" s="13">
+        <v>180383.67127385744</v>
+      </c>
+      <c r="M56" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">
